--- a/ASRouter/RoutingTable_Template.xlsx
+++ b/ASRouter/RoutingTable_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\iCodeWorspace\ASRouter-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA119C61-1F43-4351-BF94-1B0D6C31BDD9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D8100EA-BAF3-4C01-8018-7B3A529858B3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" tabRatio="696" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="83">
   <si>
     <r>
       <rPr>
@@ -432,6 +432,38 @@
   </si>
   <si>
     <t>Message_13</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Diag_PhyReq_A|Diag_PhyRes_A</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Diag_PhyReq_B|Diag_PhyRes_B</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Diag_FuncReq_A</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Diag_FuncReq_B</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x701|0x702</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x7DF</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x703|0x704</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Diag</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -587,7 +619,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -824,26 +856,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -877,6 +889,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -894,7 +919,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -943,6 +968,18 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -956,21 +993,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="16" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="17" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -991,49 +1013,49 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="19" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="20" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="21" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="16" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="17" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="22" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="20" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="16" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="17" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="7" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="21" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1077,8 +1099,8 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>1073580</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>88792</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>56505</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1093,8 +1115,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14150276" y="1372246"/>
-          <a:ext cx="3971440" cy="2930148"/>
+          <a:off x="15918051" y="1372246"/>
+          <a:ext cx="3971440" cy="4253962"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1214,11 +1236,218 @@
             </a:rPr>
             <a:t>Signals in channel A is routed to channel B. The send type of signals  is generally Cyclic, and the period for source signals is smaller than that for target signals.</a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="0" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>4. Diagnostic routing in TP-HIGH-LEVEL </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Routing flow CanIf-&gt;CanTp-&gt;PduR-&gt;CanTp-&gt;CanIf</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
           <a:endParaRPr lang="zh-CN" altLang="zh-CN">
             <a:effectLst/>
           </a:endParaRPr>
         </a:p>
         <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1"/>
+            <a:t>5.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Diagnostic routing in TP-LOW-LEVEL </a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN" b="1">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Same with </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Direct</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> Message Routing. e.g </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>CanIf-&gt;PduR-&gt;CanIf</a:t>
+          </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="1"/>
         </a:p>
       </xdr:txBody>
@@ -1545,13 +1774,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="74.25" customHeight="1" thickBot="1">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
     </row>
     <row r="2" spans="1:5" ht="43.35" customHeight="1">
       <c r="A2" s="6" t="s">
@@ -2301,4060 +2530,4060 @@
       <c r="E106" s="11"/>
     </row>
     <row r="107" spans="1:5">
-      <c r="A107" s="16"/>
+      <c r="A107" s="20"/>
       <c r="B107" s="9"/>
       <c r="C107" s="9"/>
       <c r="D107" s="9"/>
       <c r="E107" s="11"/>
     </row>
     <row r="108" spans="1:5">
-      <c r="A108" s="19"/>
+      <c r="A108" s="23"/>
       <c r="B108" s="9"/>
       <c r="C108" s="9"/>
       <c r="D108" s="9"/>
       <c r="E108" s="11"/>
     </row>
     <row r="109" spans="1:5">
-      <c r="A109" s="19"/>
+      <c r="A109" s="23"/>
       <c r="B109" s="9"/>
       <c r="C109" s="9"/>
       <c r="D109" s="9"/>
       <c r="E109" s="11"/>
     </row>
     <row r="110" spans="1:5">
-      <c r="A110" s="19"/>
+      <c r="A110" s="23"/>
       <c r="B110" s="9"/>
       <c r="C110" s="9"/>
       <c r="D110" s="9"/>
       <c r="E110" s="11"/>
     </row>
     <row r="111" spans="1:5">
-      <c r="A111" s="19"/>
+      <c r="A111" s="23"/>
       <c r="B111" s="9"/>
       <c r="C111" s="9"/>
       <c r="D111" s="9"/>
       <c r="E111" s="11"/>
     </row>
     <row r="112" spans="1:5">
-      <c r="A112" s="19"/>
+      <c r="A112" s="23"/>
       <c r="B112" s="9"/>
       <c r="C112" s="9"/>
       <c r="D112" s="9"/>
       <c r="E112" s="11"/>
     </row>
     <row r="113" spans="1:5">
-      <c r="A113" s="19"/>
+      <c r="A113" s="23"/>
       <c r="B113" s="9"/>
       <c r="C113" s="9"/>
       <c r="D113" s="9"/>
       <c r="E113" s="11"/>
     </row>
     <row r="114" spans="1:5">
-      <c r="A114" s="19"/>
+      <c r="A114" s="23"/>
       <c r="B114" s="9"/>
       <c r="C114" s="9"/>
       <c r="D114" s="9"/>
       <c r="E114" s="11"/>
     </row>
     <row r="115" spans="1:5">
-      <c r="A115" s="19"/>
+      <c r="A115" s="23"/>
       <c r="B115" s="9"/>
       <c r="C115" s="9"/>
       <c r="D115" s="9"/>
       <c r="E115" s="11"/>
     </row>
     <row r="116" spans="1:5">
-      <c r="A116" s="19"/>
+      <c r="A116" s="23"/>
       <c r="B116" s="9"/>
       <c r="C116" s="9"/>
       <c r="D116" s="9"/>
       <c r="E116" s="11"/>
     </row>
     <row r="117" spans="1:5">
-      <c r="A117" s="19"/>
+      <c r="A117" s="23"/>
       <c r="B117" s="9"/>
       <c r="C117" s="9"/>
       <c r="D117" s="9"/>
       <c r="E117" s="11"/>
     </row>
     <row r="118" spans="1:5">
-      <c r="A118" s="19"/>
+      <c r="A118" s="23"/>
       <c r="B118" s="9"/>
       <c r="C118" s="9"/>
       <c r="D118" s="9"/>
       <c r="E118" s="11"/>
     </row>
     <row r="119" spans="1:5">
-      <c r="A119" s="19"/>
+      <c r="A119" s="23"/>
       <c r="B119" s="9"/>
       <c r="C119" s="9"/>
       <c r="D119" s="9"/>
       <c r="E119" s="11"/>
     </row>
     <row r="120" spans="1:5">
-      <c r="A120" s="19"/>
+      <c r="A120" s="23"/>
       <c r="B120" s="9"/>
       <c r="C120" s="9"/>
       <c r="D120" s="9"/>
       <c r="E120" s="11"/>
     </row>
     <row r="121" spans="1:5">
-      <c r="A121" s="19"/>
+      <c r="A121" s="23"/>
       <c r="B121" s="9"/>
       <c r="C121" s="9"/>
       <c r="D121" s="9"/>
       <c r="E121" s="11"/>
     </row>
     <row r="122" spans="1:5">
-      <c r="A122" s="19"/>
+      <c r="A122" s="23"/>
       <c r="B122" s="9"/>
       <c r="C122" s="9"/>
       <c r="D122" s="9"/>
       <c r="E122" s="11"/>
     </row>
     <row r="123" spans="1:5">
-      <c r="A123" s="19"/>
+      <c r="A123" s="23"/>
       <c r="B123" s="9"/>
       <c r="C123" s="9"/>
       <c r="D123" s="9"/>
       <c r="E123" s="11"/>
     </row>
     <row r="124" spans="1:5">
-      <c r="A124" s="19"/>
+      <c r="A124" s="23"/>
       <c r="B124" s="9"/>
       <c r="C124" s="9"/>
       <c r="D124" s="9"/>
       <c r="E124" s="11"/>
     </row>
     <row r="125" spans="1:5">
-      <c r="A125" s="19"/>
+      <c r="A125" s="23"/>
       <c r="B125" s="9"/>
       <c r="C125" s="9"/>
       <c r="D125" s="9"/>
       <c r="E125" s="11"/>
     </row>
     <row r="126" spans="1:5">
-      <c r="A126" s="19"/>
+      <c r="A126" s="23"/>
       <c r="B126" s="9"/>
       <c r="C126" s="9"/>
       <c r="D126" s="9"/>
       <c r="E126" s="11"/>
     </row>
     <row r="127" spans="1:5">
-      <c r="A127" s="19"/>
+      <c r="A127" s="23"/>
       <c r="B127" s="9"/>
       <c r="C127" s="9"/>
       <c r="D127" s="9"/>
       <c r="E127" s="11"/>
     </row>
     <row r="128" spans="1:5">
-      <c r="A128" s="19"/>
+      <c r="A128" s="23"/>
       <c r="B128" s="9"/>
       <c r="C128" s="9"/>
       <c r="D128" s="9"/>
       <c r="E128" s="11"/>
     </row>
     <row r="129" spans="1:5">
-      <c r="A129" s="19"/>
+      <c r="A129" s="23"/>
       <c r="B129" s="9"/>
       <c r="C129" s="9"/>
       <c r="D129" s="9"/>
       <c r="E129" s="11"/>
     </row>
     <row r="130" spans="1:5">
-      <c r="A130" s="19"/>
+      <c r="A130" s="23"/>
       <c r="B130" s="9"/>
       <c r="C130" s="9"/>
       <c r="D130" s="9"/>
       <c r="E130" s="11"/>
     </row>
     <row r="131" spans="1:5">
-      <c r="A131" s="19"/>
+      <c r="A131" s="23"/>
       <c r="B131" s="9"/>
       <c r="C131" s="9"/>
       <c r="D131" s="9"/>
       <c r="E131" s="11"/>
     </row>
     <row r="132" spans="1:5">
-      <c r="A132" s="19"/>
+      <c r="A132" s="23"/>
       <c r="B132" s="9"/>
       <c r="C132" s="9"/>
       <c r="D132" s="9"/>
       <c r="E132" s="11"/>
     </row>
     <row r="133" spans="1:5">
-      <c r="A133" s="19"/>
+      <c r="A133" s="23"/>
       <c r="B133" s="9"/>
       <c r="C133" s="9"/>
       <c r="D133" s="9"/>
       <c r="E133" s="11"/>
     </row>
     <row r="134" spans="1:5">
-      <c r="A134" s="19"/>
+      <c r="A134" s="23"/>
       <c r="B134" s="9"/>
       <c r="C134" s="9"/>
       <c r="D134" s="9"/>
       <c r="E134" s="11"/>
     </row>
     <row r="135" spans="1:5">
-      <c r="A135" s="19"/>
+      <c r="A135" s="23"/>
       <c r="B135" s="9"/>
       <c r="C135" s="9"/>
       <c r="D135" s="9"/>
       <c r="E135" s="11"/>
     </row>
     <row r="136" spans="1:5">
-      <c r="A136" s="19"/>
+      <c r="A136" s="23"/>
       <c r="B136" s="9"/>
       <c r="C136" s="9"/>
       <c r="D136" s="9"/>
       <c r="E136" s="11"/>
     </row>
     <row r="137" spans="1:5">
-      <c r="A137" s="19"/>
+      <c r="A137" s="23"/>
       <c r="B137" s="9"/>
       <c r="C137" s="9"/>
       <c r="D137" s="9"/>
       <c r="E137" s="11"/>
     </row>
     <row r="138" spans="1:5">
-      <c r="A138" s="19"/>
+      <c r="A138" s="23"/>
       <c r="B138" s="9"/>
       <c r="C138" s="9"/>
       <c r="D138" s="9"/>
       <c r="E138" s="11"/>
     </row>
     <row r="139" spans="1:5">
-      <c r="A139" s="19"/>
+      <c r="A139" s="23"/>
       <c r="B139" s="9"/>
       <c r="C139" s="9"/>
       <c r="D139" s="9"/>
       <c r="E139" s="11"/>
     </row>
     <row r="140" spans="1:5">
-      <c r="A140" s="19"/>
+      <c r="A140" s="23"/>
       <c r="B140" s="9"/>
       <c r="C140" s="9"/>
       <c r="D140" s="9"/>
       <c r="E140" s="11"/>
     </row>
     <row r="141" spans="1:5">
-      <c r="A141" s="19"/>
+      <c r="A141" s="23"/>
       <c r="B141" s="9"/>
       <c r="C141" s="9"/>
       <c r="D141" s="9"/>
       <c r="E141" s="11"/>
     </row>
     <row r="142" spans="1:5">
-      <c r="A142" s="19"/>
+      <c r="A142" s="23"/>
       <c r="B142" s="9"/>
       <c r="C142" s="9"/>
       <c r="D142" s="9"/>
       <c r="E142" s="11"/>
     </row>
     <row r="143" spans="1:5">
-      <c r="A143" s="19"/>
+      <c r="A143" s="23"/>
       <c r="B143" s="9"/>
       <c r="C143" s="9"/>
       <c r="D143" s="9"/>
       <c r="E143" s="11"/>
     </row>
     <row r="144" spans="1:5">
-      <c r="A144" s="19"/>
+      <c r="A144" s="23"/>
       <c r="B144" s="9"/>
       <c r="C144" s="9"/>
       <c r="D144" s="9"/>
       <c r="E144" s="11"/>
     </row>
     <row r="145" spans="1:5">
-      <c r="A145" s="19"/>
+      <c r="A145" s="23"/>
       <c r="B145" s="9"/>
       <c r="C145" s="9"/>
       <c r="D145" s="9"/>
       <c r="E145" s="11"/>
     </row>
     <row r="146" spans="1:5">
-      <c r="A146" s="19"/>
+      <c r="A146" s="23"/>
       <c r="B146" s="9"/>
       <c r="C146" s="9"/>
       <c r="D146" s="9"/>
       <c r="E146" s="11"/>
     </row>
     <row r="147" spans="1:5">
-      <c r="A147" s="19"/>
+      <c r="A147" s="23"/>
       <c r="B147" s="9"/>
       <c r="C147" s="9"/>
       <c r="D147" s="9"/>
       <c r="E147" s="11"/>
     </row>
     <row r="148" spans="1:5">
-      <c r="A148" s="19"/>
+      <c r="A148" s="23"/>
       <c r="B148" s="9"/>
       <c r="C148" s="9"/>
       <c r="D148" s="9"/>
       <c r="E148" s="11"/>
     </row>
     <row r="149" spans="1:5">
-      <c r="A149" s="19"/>
+      <c r="A149" s="23"/>
       <c r="B149" s="9"/>
       <c r="C149" s="9"/>
       <c r="D149" s="9"/>
       <c r="E149" s="11"/>
     </row>
     <row r="150" spans="1:5">
-      <c r="A150" s="19"/>
+      <c r="A150" s="23"/>
       <c r="B150" s="9"/>
       <c r="C150" s="9"/>
       <c r="D150" s="9"/>
       <c r="E150" s="11"/>
     </row>
     <row r="151" spans="1:5">
-      <c r="A151" s="19"/>
+      <c r="A151" s="23"/>
       <c r="B151" s="9"/>
       <c r="C151" s="9"/>
       <c r="D151" s="9"/>
       <c r="E151" s="11"/>
     </row>
     <row r="152" spans="1:5">
-      <c r="A152" s="19"/>
+      <c r="A152" s="23"/>
       <c r="B152" s="9"/>
       <c r="C152" s="9"/>
       <c r="D152" s="9"/>
       <c r="E152" s="11"/>
     </row>
     <row r="153" spans="1:5">
-      <c r="A153" s="19"/>
+      <c r="A153" s="23"/>
       <c r="B153" s="9"/>
       <c r="C153" s="9"/>
       <c r="D153" s="9"/>
       <c r="E153" s="11"/>
     </row>
     <row r="154" spans="1:5">
-      <c r="A154" s="19"/>
+      <c r="A154" s="23"/>
       <c r="B154" s="9"/>
       <c r="C154" s="9"/>
       <c r="D154" s="9"/>
       <c r="E154" s="11"/>
     </row>
     <row r="155" spans="1:5">
-      <c r="A155" s="19"/>
+      <c r="A155" s="23"/>
       <c r="B155" s="9"/>
       <c r="C155" s="9"/>
       <c r="D155" s="9"/>
       <c r="E155" s="11"/>
     </row>
     <row r="156" spans="1:5">
-      <c r="A156" s="19"/>
+      <c r="A156" s="23"/>
       <c r="B156" s="9"/>
       <c r="C156" s="9"/>
       <c r="D156" s="9"/>
       <c r="E156" s="11"/>
     </row>
     <row r="157" spans="1:5">
-      <c r="A157" s="19"/>
+      <c r="A157" s="23"/>
       <c r="B157" s="9"/>
       <c r="C157" s="9"/>
       <c r="D157" s="9"/>
       <c r="E157" s="11"/>
     </row>
     <row r="158" spans="1:5">
-      <c r="A158" s="19"/>
+      <c r="A158" s="23"/>
       <c r="B158" s="9"/>
       <c r="C158" s="9"/>
       <c r="D158" s="9"/>
       <c r="E158" s="11"/>
     </row>
     <row r="159" spans="1:5">
-      <c r="A159" s="19"/>
+      <c r="A159" s="23"/>
       <c r="B159" s="9"/>
       <c r="C159" s="9"/>
       <c r="D159" s="9"/>
       <c r="E159" s="11"/>
     </row>
     <row r="160" spans="1:5">
-      <c r="A160" s="19"/>
+      <c r="A160" s="23"/>
       <c r="B160" s="9"/>
       <c r="C160" s="9"/>
       <c r="D160" s="9"/>
       <c r="E160" s="11"/>
     </row>
     <row r="161" spans="1:5">
-      <c r="A161" s="19"/>
+      <c r="A161" s="23"/>
       <c r="B161" s="9"/>
       <c r="C161" s="9"/>
       <c r="D161" s="9"/>
       <c r="E161" s="11"/>
     </row>
     <row r="162" spans="1:5">
-      <c r="A162" s="19"/>
+      <c r="A162" s="23"/>
       <c r="B162" s="9"/>
       <c r="C162" s="9"/>
       <c r="D162" s="9"/>
       <c r="E162" s="11"/>
     </row>
     <row r="163" spans="1:5">
-      <c r="A163" s="19"/>
+      <c r="A163" s="23"/>
       <c r="B163" s="9"/>
       <c r="C163" s="9"/>
       <c r="D163" s="9"/>
       <c r="E163" s="11"/>
     </row>
     <row r="164" spans="1:5">
-      <c r="A164" s="19"/>
+      <c r="A164" s="23"/>
       <c r="B164" s="9"/>
       <c r="C164" s="9"/>
       <c r="D164" s="9"/>
       <c r="E164" s="11"/>
     </row>
     <row r="165" spans="1:5">
-      <c r="A165" s="19"/>
+      <c r="A165" s="23"/>
       <c r="B165" s="9"/>
       <c r="C165" s="9"/>
       <c r="D165" s="9"/>
       <c r="E165" s="11"/>
     </row>
     <row r="166" spans="1:5">
-      <c r="A166" s="19"/>
+      <c r="A166" s="23"/>
       <c r="B166" s="9"/>
       <c r="C166" s="9"/>
       <c r="D166" s="9"/>
       <c r="E166" s="11"/>
     </row>
     <row r="167" spans="1:5">
-      <c r="A167" s="19"/>
+      <c r="A167" s="23"/>
       <c r="B167" s="9"/>
       <c r="C167" s="9"/>
       <c r="D167" s="9"/>
       <c r="E167" s="11"/>
     </row>
     <row r="168" spans="1:5">
-      <c r="A168" s="19"/>
+      <c r="A168" s="23"/>
       <c r="B168" s="9"/>
       <c r="C168" s="9"/>
       <c r="D168" s="9"/>
       <c r="E168" s="11"/>
     </row>
     <row r="169" spans="1:5">
-      <c r="A169" s="19"/>
+      <c r="A169" s="23"/>
       <c r="B169" s="9"/>
       <c r="C169" s="9"/>
       <c r="D169" s="9"/>
       <c r="E169" s="11"/>
     </row>
     <row r="170" spans="1:5">
-      <c r="A170" s="19"/>
+      <c r="A170" s="23"/>
       <c r="B170" s="9"/>
       <c r="C170" s="9"/>
       <c r="D170" s="9"/>
       <c r="E170" s="11"/>
     </row>
     <row r="171" spans="1:5">
-      <c r="A171" s="19"/>
+      <c r="A171" s="23"/>
       <c r="B171" s="9"/>
       <c r="C171" s="9"/>
       <c r="D171" s="9"/>
       <c r="E171" s="11"/>
     </row>
     <row r="172" spans="1:5">
-      <c r="A172" s="19"/>
+      <c r="A172" s="23"/>
       <c r="B172" s="9"/>
       <c r="C172" s="9"/>
       <c r="D172" s="9"/>
       <c r="E172" s="11"/>
     </row>
     <row r="173" spans="1:5">
-      <c r="A173" s="19"/>
+      <c r="A173" s="23"/>
       <c r="B173" s="9"/>
       <c r="C173" s="9"/>
       <c r="D173" s="9"/>
       <c r="E173" s="11"/>
     </row>
     <row r="174" spans="1:5">
-      <c r="A174" s="19"/>
+      <c r="A174" s="23"/>
       <c r="B174" s="9"/>
       <c r="C174" s="9"/>
       <c r="D174" s="9"/>
       <c r="E174" s="11"/>
     </row>
     <row r="175" spans="1:5">
-      <c r="A175" s="19"/>
+      <c r="A175" s="23"/>
       <c r="B175" s="9"/>
       <c r="C175" s="9"/>
       <c r="D175" s="9"/>
       <c r="E175" s="11"/>
     </row>
     <row r="176" spans="1:5">
-      <c r="A176" s="19"/>
+      <c r="A176" s="23"/>
       <c r="B176" s="9"/>
       <c r="C176" s="9"/>
       <c r="D176" s="9"/>
       <c r="E176" s="11"/>
     </row>
     <row r="177" spans="1:5">
-      <c r="A177" s="19"/>
+      <c r="A177" s="23"/>
       <c r="B177" s="9"/>
       <c r="C177" s="9"/>
       <c r="D177" s="9"/>
       <c r="E177" s="11"/>
     </row>
     <row r="178" spans="1:5">
-      <c r="A178" s="19"/>
+      <c r="A178" s="23"/>
       <c r="B178" s="9"/>
       <c r="C178" s="9"/>
       <c r="D178" s="9"/>
       <c r="E178" s="11"/>
     </row>
     <row r="179" spans="1:5">
-      <c r="A179" s="19"/>
+      <c r="A179" s="23"/>
       <c r="B179" s="9"/>
       <c r="C179" s="9"/>
       <c r="D179" s="9"/>
       <c r="E179" s="11"/>
     </row>
     <row r="180" spans="1:5">
-      <c r="A180" s="19"/>
+      <c r="A180" s="23"/>
       <c r="B180" s="9"/>
       <c r="C180" s="9"/>
       <c r="D180" s="9"/>
       <c r="E180" s="11"/>
     </row>
     <row r="181" spans="1:5">
-      <c r="A181" s="19"/>
+      <c r="A181" s="23"/>
       <c r="B181" s="9"/>
       <c r="C181" s="9"/>
       <c r="D181" s="9"/>
       <c r="E181" s="11"/>
     </row>
     <row r="182" spans="1:5">
-      <c r="A182" s="19"/>
+      <c r="A182" s="23"/>
       <c r="B182" s="9"/>
       <c r="C182" s="9"/>
       <c r="D182" s="9"/>
       <c r="E182" s="11"/>
     </row>
     <row r="183" spans="1:5">
-      <c r="A183" s="19"/>
+      <c r="A183" s="23"/>
       <c r="B183" s="9"/>
       <c r="C183" s="9"/>
       <c r="D183" s="9"/>
       <c r="E183" s="11"/>
     </row>
     <row r="184" spans="1:5">
-      <c r="A184" s="19"/>
+      <c r="A184" s="23"/>
       <c r="B184" s="9"/>
       <c r="C184" s="9"/>
       <c r="D184" s="9"/>
       <c r="E184" s="11"/>
     </row>
     <row r="185" spans="1:5">
-      <c r="A185" s="19"/>
+      <c r="A185" s="23"/>
       <c r="B185" s="9"/>
       <c r="C185" s="9"/>
       <c r="D185" s="9"/>
       <c r="E185" s="11"/>
     </row>
     <row r="186" spans="1:5">
-      <c r="A186" s="19"/>
+      <c r="A186" s="23"/>
       <c r="B186" s="9"/>
       <c r="C186" s="9"/>
       <c r="D186" s="9"/>
       <c r="E186" s="11"/>
     </row>
     <row r="187" spans="1:5">
-      <c r="A187" s="19"/>
+      <c r="A187" s="23"/>
       <c r="B187" s="9"/>
       <c r="C187" s="9"/>
       <c r="D187" s="9"/>
       <c r="E187" s="11"/>
     </row>
     <row r="188" spans="1:5">
-      <c r="A188" s="19"/>
+      <c r="A188" s="23"/>
       <c r="B188" s="9"/>
       <c r="C188" s="9"/>
       <c r="D188" s="9"/>
       <c r="E188" s="11"/>
     </row>
     <row r="189" spans="1:5">
-      <c r="A189" s="19"/>
+      <c r="A189" s="23"/>
       <c r="B189" s="9"/>
       <c r="C189" s="9"/>
       <c r="D189" s="9"/>
       <c r="E189" s="11"/>
     </row>
     <row r="190" spans="1:5">
-      <c r="A190" s="19"/>
+      <c r="A190" s="23"/>
       <c r="B190" s="9"/>
       <c r="C190" s="9"/>
       <c r="D190" s="9"/>
       <c r="E190" s="11"/>
     </row>
     <row r="191" spans="1:5">
-      <c r="A191" s="19"/>
+      <c r="A191" s="23"/>
       <c r="B191" s="9"/>
       <c r="C191" s="9"/>
       <c r="D191" s="9"/>
       <c r="E191" s="11"/>
     </row>
     <row r="192" spans="1:5">
-      <c r="A192" s="19"/>
+      <c r="A192" s="23"/>
       <c r="B192" s="9"/>
       <c r="C192" s="9"/>
       <c r="D192" s="9"/>
       <c r="E192" s="11"/>
     </row>
     <row r="193" spans="1:5">
-      <c r="A193" s="19"/>
+      <c r="A193" s="23"/>
       <c r="B193" s="9"/>
       <c r="C193" s="9"/>
       <c r="D193" s="9"/>
       <c r="E193" s="11"/>
     </row>
     <row r="194" spans="1:5">
-      <c r="A194" s="19"/>
+      <c r="A194" s="23"/>
       <c r="B194" s="9"/>
       <c r="C194" s="9"/>
       <c r="D194" s="9"/>
       <c r="E194" s="11"/>
     </row>
     <row r="195" spans="1:5">
-      <c r="A195" s="19"/>
+      <c r="A195" s="23"/>
       <c r="B195" s="9"/>
       <c r="C195" s="9"/>
       <c r="D195" s="9"/>
       <c r="E195" s="11"/>
     </row>
     <row r="196" spans="1:5">
-      <c r="A196" s="19"/>
+      <c r="A196" s="23"/>
       <c r="B196" s="9"/>
       <c r="C196" s="9"/>
       <c r="D196" s="9"/>
       <c r="E196" s="11"/>
     </row>
     <row r="197" spans="1:5">
-      <c r="A197" s="19"/>
+      <c r="A197" s="23"/>
       <c r="B197" s="9"/>
       <c r="C197" s="9"/>
       <c r="D197" s="9"/>
       <c r="E197" s="11"/>
     </row>
     <row r="198" spans="1:5">
-      <c r="A198" s="19"/>
+      <c r="A198" s="23"/>
       <c r="B198" s="9"/>
       <c r="C198" s="9"/>
       <c r="D198" s="9"/>
       <c r="E198" s="11"/>
     </row>
     <row r="199" spans="1:5">
-      <c r="A199" s="19"/>
+      <c r="A199" s="23"/>
       <c r="B199" s="9"/>
       <c r="C199" s="9"/>
       <c r="D199" s="9"/>
       <c r="E199" s="11"/>
     </row>
     <row r="200" spans="1:5">
-      <c r="A200" s="19"/>
+      <c r="A200" s="23"/>
       <c r="B200" s="9"/>
       <c r="C200" s="9"/>
       <c r="D200" s="9"/>
       <c r="E200" s="11"/>
     </row>
     <row r="201" spans="1:5">
-      <c r="A201" s="19"/>
+      <c r="A201" s="23"/>
       <c r="B201" s="9"/>
       <c r="C201" s="9"/>
       <c r="D201" s="9"/>
       <c r="E201" s="11"/>
     </row>
     <row r="202" spans="1:5">
-      <c r="A202" s="19"/>
+      <c r="A202" s="23"/>
       <c r="B202" s="9"/>
       <c r="C202" s="9"/>
       <c r="D202" s="9"/>
       <c r="E202" s="11"/>
     </row>
     <row r="203" spans="1:5">
-      <c r="A203" s="19"/>
+      <c r="A203" s="23"/>
       <c r="B203" s="9"/>
       <c r="C203" s="9"/>
       <c r="D203" s="9"/>
       <c r="E203" s="11"/>
     </row>
     <row r="204" spans="1:5">
-      <c r="A204" s="19"/>
+      <c r="A204" s="23"/>
       <c r="B204" s="9"/>
       <c r="C204" s="9"/>
       <c r="D204" s="9"/>
       <c r="E204" s="11"/>
     </row>
     <row r="205" spans="1:5">
-      <c r="A205" s="19"/>
+      <c r="A205" s="23"/>
       <c r="B205" s="9"/>
       <c r="C205" s="9"/>
       <c r="D205" s="9"/>
       <c r="E205" s="11"/>
     </row>
     <row r="206" spans="1:5">
-      <c r="A206" s="19"/>
+      <c r="A206" s="23"/>
       <c r="B206" s="9"/>
       <c r="C206" s="9"/>
       <c r="D206" s="9"/>
       <c r="E206" s="11"/>
     </row>
     <row r="207" spans="1:5">
-      <c r="A207" s="19"/>
+      <c r="A207" s="23"/>
       <c r="B207" s="9"/>
       <c r="C207" s="9"/>
       <c r="D207" s="9"/>
       <c r="E207" s="11"/>
     </row>
     <row r="208" spans="1:5">
-      <c r="A208" s="19"/>
+      <c r="A208" s="23"/>
       <c r="B208" s="9"/>
       <c r="C208" s="9"/>
       <c r="D208" s="9"/>
       <c r="E208" s="11"/>
     </row>
     <row r="209" spans="1:5">
-      <c r="A209" s="19"/>
+      <c r="A209" s="23"/>
       <c r="B209" s="9"/>
       <c r="C209" s="9"/>
       <c r="D209" s="9"/>
       <c r="E209" s="11"/>
     </row>
     <row r="210" spans="1:5">
-      <c r="A210" s="19"/>
+      <c r="A210" s="23"/>
       <c r="B210" s="9"/>
       <c r="C210" s="9"/>
       <c r="D210" s="9"/>
       <c r="E210" s="11"/>
     </row>
     <row r="211" spans="1:5">
-      <c r="A211" s="19"/>
+      <c r="A211" s="23"/>
       <c r="B211" s="9"/>
       <c r="C211" s="9"/>
       <c r="D211" s="9"/>
       <c r="E211" s="11"/>
     </row>
     <row r="212" spans="1:5">
-      <c r="A212" s="19"/>
+      <c r="A212" s="23"/>
       <c r="B212" s="9"/>
       <c r="C212" s="9"/>
       <c r="D212" s="9"/>
       <c r="E212" s="11"/>
     </row>
     <row r="213" spans="1:5">
-      <c r="A213" s="19"/>
+      <c r="A213" s="23"/>
       <c r="B213" s="9"/>
       <c r="C213" s="9"/>
       <c r="D213" s="9"/>
       <c r="E213" s="11"/>
     </row>
     <row r="214" spans="1:5">
-      <c r="A214" s="19"/>
+      <c r="A214" s="23"/>
       <c r="B214" s="9"/>
       <c r="C214" s="9"/>
       <c r="D214" s="9"/>
       <c r="E214" s="11"/>
     </row>
     <row r="215" spans="1:5">
-      <c r="A215" s="19"/>
+      <c r="A215" s="23"/>
       <c r="B215" s="9"/>
       <c r="C215" s="9"/>
       <c r="D215" s="9"/>
       <c r="E215" s="11"/>
     </row>
     <row r="216" spans="1:5">
-      <c r="A216" s="19"/>
+      <c r="A216" s="23"/>
       <c r="B216" s="9"/>
       <c r="C216" s="9"/>
       <c r="D216" s="9"/>
       <c r="E216" s="11"/>
     </row>
     <row r="217" spans="1:5">
-      <c r="A217" s="19"/>
+      <c r="A217" s="23"/>
       <c r="B217" s="9"/>
       <c r="C217" s="9"/>
       <c r="D217" s="9"/>
       <c r="E217" s="11"/>
     </row>
     <row r="218" spans="1:5">
-      <c r="A218" s="19"/>
+      <c r="A218" s="23"/>
       <c r="B218" s="9"/>
       <c r="C218" s="9"/>
       <c r="D218" s="9"/>
       <c r="E218" s="11"/>
     </row>
     <row r="219" spans="1:5">
-      <c r="A219" s="19"/>
+      <c r="A219" s="23"/>
       <c r="B219" s="9"/>
       <c r="C219" s="9"/>
       <c r="D219" s="9"/>
       <c r="E219" s="11"/>
     </row>
     <row r="220" spans="1:5">
-      <c r="A220" s="19"/>
+      <c r="A220" s="23"/>
       <c r="B220" s="9"/>
       <c r="C220" s="9"/>
       <c r="D220" s="9"/>
       <c r="E220" s="11"/>
     </row>
     <row r="221" spans="1:5">
-      <c r="A221" s="19"/>
+      <c r="A221" s="23"/>
       <c r="B221" s="9"/>
       <c r="C221" s="9"/>
       <c r="D221" s="9"/>
       <c r="E221" s="11"/>
     </row>
     <row r="222" spans="1:5">
-      <c r="A222" s="19"/>
+      <c r="A222" s="23"/>
       <c r="B222" s="9"/>
       <c r="C222" s="9"/>
       <c r="D222" s="9"/>
       <c r="E222" s="11"/>
     </row>
     <row r="223" spans="1:5">
-      <c r="A223" s="19"/>
+      <c r="A223" s="23"/>
       <c r="B223" s="9"/>
       <c r="C223" s="9"/>
       <c r="D223" s="9"/>
       <c r="E223" s="11"/>
     </row>
     <row r="224" spans="1:5">
-      <c r="A224" s="19"/>
+      <c r="A224" s="23"/>
       <c r="B224" s="9"/>
       <c r="C224" s="9"/>
       <c r="D224" s="9"/>
       <c r="E224" s="11"/>
     </row>
     <row r="225" spans="1:5">
-      <c r="A225" s="19"/>
+      <c r="A225" s="23"/>
       <c r="B225" s="9"/>
       <c r="C225" s="9"/>
       <c r="D225" s="9"/>
       <c r="E225" s="11"/>
     </row>
     <row r="226" spans="1:5">
-      <c r="A226" s="19"/>
+      <c r="A226" s="23"/>
       <c r="B226" s="9"/>
       <c r="C226" s="9"/>
       <c r="D226" s="9"/>
       <c r="E226" s="11"/>
     </row>
     <row r="227" spans="1:5">
-      <c r="A227" s="19"/>
+      <c r="A227" s="23"/>
       <c r="B227" s="9"/>
       <c r="C227" s="9"/>
       <c r="D227" s="9"/>
       <c r="E227" s="11"/>
     </row>
     <row r="228" spans="1:5">
-      <c r="A228" s="19"/>
+      <c r="A228" s="23"/>
       <c r="B228" s="9"/>
       <c r="C228" s="9"/>
       <c r="D228" s="9"/>
       <c r="E228" s="11"/>
     </row>
     <row r="229" spans="1:5">
-      <c r="A229" s="19"/>
+      <c r="A229" s="23"/>
       <c r="B229" s="9"/>
       <c r="C229" s="9"/>
       <c r="D229" s="9"/>
       <c r="E229" s="11"/>
     </row>
     <row r="230" spans="1:5">
-      <c r="A230" s="19"/>
+      <c r="A230" s="23"/>
       <c r="B230" s="9"/>
       <c r="C230" s="9"/>
       <c r="D230" s="9"/>
       <c r="E230" s="11"/>
     </row>
     <row r="231" spans="1:5">
-      <c r="A231" s="19"/>
+      <c r="A231" s="23"/>
       <c r="B231" s="9"/>
       <c r="C231" s="9"/>
       <c r="D231" s="9"/>
       <c r="E231" s="11"/>
     </row>
     <row r="232" spans="1:5">
-      <c r="A232" s="19"/>
+      <c r="A232" s="23"/>
       <c r="B232" s="9"/>
       <c r="C232" s="9"/>
       <c r="D232" s="9"/>
       <c r="E232" s="11"/>
     </row>
     <row r="233" spans="1:5">
-      <c r="A233" s="19"/>
+      <c r="A233" s="23"/>
       <c r="B233" s="9"/>
       <c r="C233" s="9"/>
       <c r="D233" s="9"/>
       <c r="E233" s="11"/>
     </row>
     <row r="234" spans="1:5">
-      <c r="A234" s="19"/>
+      <c r="A234" s="23"/>
       <c r="B234" s="9"/>
       <c r="C234" s="9"/>
       <c r="D234" s="9"/>
       <c r="E234" s="11"/>
     </row>
     <row r="235" spans="1:5">
-      <c r="A235" s="19"/>
+      <c r="A235" s="23"/>
       <c r="B235" s="9"/>
       <c r="C235" s="9"/>
       <c r="D235" s="9"/>
       <c r="E235" s="11"/>
     </row>
     <row r="236" spans="1:5">
-      <c r="A236" s="19"/>
+      <c r="A236" s="23"/>
       <c r="B236" s="9"/>
       <c r="C236" s="9"/>
       <c r="D236" s="9"/>
       <c r="E236" s="11"/>
     </row>
     <row r="237" spans="1:5">
-      <c r="A237" s="19"/>
+      <c r="A237" s="23"/>
       <c r="B237" s="9"/>
       <c r="C237" s="9"/>
       <c r="D237" s="9"/>
       <c r="E237" s="11"/>
     </row>
     <row r="238" spans="1:5">
-      <c r="A238" s="19"/>
+      <c r="A238" s="23"/>
       <c r="B238" s="9"/>
       <c r="C238" s="9"/>
       <c r="D238" s="9"/>
       <c r="E238" s="11"/>
     </row>
     <row r="239" spans="1:5">
-      <c r="A239" s="19"/>
+      <c r="A239" s="23"/>
       <c r="B239" s="9"/>
       <c r="C239" s="9"/>
       <c r="D239" s="9"/>
       <c r="E239" s="11"/>
     </row>
     <row r="240" spans="1:5">
-      <c r="A240" s="19"/>
+      <c r="A240" s="23"/>
       <c r="B240" s="9"/>
       <c r="C240" s="9"/>
       <c r="D240" s="9"/>
       <c r="E240" s="11"/>
     </row>
     <row r="241" spans="1:5">
-      <c r="A241" s="19"/>
+      <c r="A241" s="23"/>
       <c r="B241" s="9"/>
       <c r="C241" s="9"/>
       <c r="D241" s="9"/>
       <c r="E241" s="11"/>
     </row>
     <row r="242" spans="1:5">
-      <c r="A242" s="19"/>
+      <c r="A242" s="23"/>
       <c r="B242" s="9"/>
       <c r="C242" s="9"/>
       <c r="D242" s="9"/>
       <c r="E242" s="11"/>
     </row>
     <row r="243" spans="1:5">
-      <c r="A243" s="19"/>
+      <c r="A243" s="23"/>
       <c r="B243" s="9"/>
       <c r="C243" s="9"/>
       <c r="D243" s="9"/>
       <c r="E243" s="11"/>
     </row>
     <row r="244" spans="1:5">
-      <c r="A244" s="19"/>
+      <c r="A244" s="23"/>
       <c r="B244" s="9"/>
       <c r="C244" s="9"/>
       <c r="D244" s="9"/>
       <c r="E244" s="11"/>
     </row>
     <row r="245" spans="1:5">
-      <c r="A245" s="19"/>
+      <c r="A245" s="23"/>
       <c r="B245" s="9"/>
       <c r="C245" s="9"/>
       <c r="D245" s="9"/>
       <c r="E245" s="11"/>
     </row>
     <row r="246" spans="1:5">
-      <c r="A246" s="19"/>
+      <c r="A246" s="23"/>
       <c r="B246" s="9"/>
       <c r="C246" s="9"/>
       <c r="D246" s="9"/>
       <c r="E246" s="11"/>
     </row>
     <row r="247" spans="1:5">
-      <c r="A247" s="19"/>
+      <c r="A247" s="23"/>
       <c r="B247" s="9"/>
       <c r="C247" s="9"/>
       <c r="D247" s="9"/>
       <c r="E247" s="11"/>
     </row>
     <row r="248" spans="1:5">
-      <c r="A248" s="19"/>
+      <c r="A248" s="23"/>
       <c r="B248" s="9"/>
       <c r="C248" s="9"/>
       <c r="D248" s="9"/>
       <c r="E248" s="11"/>
     </row>
     <row r="249" spans="1:5">
-      <c r="A249" s="19"/>
+      <c r="A249" s="23"/>
       <c r="B249" s="9"/>
       <c r="C249" s="9"/>
       <c r="D249" s="9"/>
       <c r="E249" s="11"/>
     </row>
     <row r="250" spans="1:5">
-      <c r="A250" s="19"/>
+      <c r="A250" s="23"/>
       <c r="B250" s="9"/>
       <c r="C250" s="9"/>
       <c r="D250" s="9"/>
       <c r="E250" s="11"/>
     </row>
     <row r="251" spans="1:5">
-      <c r="A251" s="19"/>
+      <c r="A251" s="23"/>
       <c r="B251" s="9"/>
       <c r="C251" s="9"/>
       <c r="D251" s="9"/>
       <c r="E251" s="11"/>
     </row>
     <row r="252" spans="1:5">
-      <c r="A252" s="19"/>
+      <c r="A252" s="23"/>
       <c r="B252" s="9"/>
       <c r="C252" s="9"/>
       <c r="D252" s="9"/>
       <c r="E252" s="11"/>
     </row>
     <row r="253" spans="1:5">
-      <c r="A253" s="19"/>
+      <c r="A253" s="23"/>
       <c r="B253" s="9"/>
       <c r="C253" s="9"/>
       <c r="D253" s="9"/>
       <c r="E253" s="11"/>
     </row>
     <row r="254" spans="1:5">
-      <c r="A254" s="19"/>
+      <c r="A254" s="23"/>
       <c r="B254" s="9"/>
       <c r="C254" s="9"/>
       <c r="D254" s="9"/>
       <c r="E254" s="11"/>
     </row>
     <row r="255" spans="1:5">
-      <c r="A255" s="19"/>
+      <c r="A255" s="23"/>
       <c r="B255" s="9"/>
       <c r="C255" s="9"/>
       <c r="D255" s="9"/>
       <c r="E255" s="11"/>
     </row>
     <row r="256" spans="1:5">
-      <c r="A256" s="19"/>
+      <c r="A256" s="23"/>
       <c r="B256" s="9"/>
       <c r="C256" s="9"/>
       <c r="D256" s="9"/>
       <c r="E256" s="11"/>
     </row>
     <row r="257" spans="1:5">
-      <c r="A257" s="19"/>
+      <c r="A257" s="23"/>
       <c r="B257" s="9"/>
       <c r="C257" s="9"/>
       <c r="D257" s="9"/>
       <c r="E257" s="11"/>
     </row>
     <row r="258" spans="1:5">
-      <c r="A258" s="19"/>
+      <c r="A258" s="23"/>
       <c r="B258" s="9"/>
       <c r="C258" s="9"/>
       <c r="D258" s="9"/>
       <c r="E258" s="11"/>
     </row>
     <row r="259" spans="1:5">
-      <c r="A259" s="19"/>
+      <c r="A259" s="23"/>
       <c r="B259" s="9"/>
       <c r="C259" s="9"/>
       <c r="D259" s="9"/>
       <c r="E259" s="11"/>
     </row>
     <row r="260" spans="1:5">
-      <c r="A260" s="19"/>
+      <c r="A260" s="23"/>
       <c r="B260" s="9"/>
       <c r="C260" s="9"/>
       <c r="D260" s="9"/>
       <c r="E260" s="11"/>
     </row>
     <row r="261" spans="1:5">
-      <c r="A261" s="19"/>
+      <c r="A261" s="23"/>
       <c r="B261" s="9"/>
       <c r="C261" s="9"/>
       <c r="D261" s="9"/>
       <c r="E261" s="11"/>
     </row>
     <row r="262" spans="1:5">
-      <c r="A262" s="19"/>
+      <c r="A262" s="23"/>
       <c r="B262" s="9"/>
       <c r="C262" s="9"/>
       <c r="D262" s="9"/>
       <c r="E262" s="11"/>
     </row>
     <row r="263" spans="1:5">
-      <c r="A263" s="19"/>
+      <c r="A263" s="23"/>
       <c r="B263" s="9"/>
       <c r="C263" s="9"/>
       <c r="D263" s="9"/>
       <c r="E263" s="11"/>
     </row>
     <row r="264" spans="1:5">
-      <c r="A264" s="19"/>
+      <c r="A264" s="23"/>
       <c r="B264" s="9"/>
       <c r="C264" s="9"/>
       <c r="D264" s="9"/>
       <c r="E264" s="11"/>
     </row>
     <row r="265" spans="1:5">
-      <c r="A265" s="19"/>
+      <c r="A265" s="23"/>
       <c r="B265" s="9"/>
       <c r="C265" s="9"/>
       <c r="D265" s="9"/>
       <c r="E265" s="11"/>
     </row>
     <row r="266" spans="1:5">
-      <c r="A266" s="19"/>
+      <c r="A266" s="23"/>
       <c r="B266" s="9"/>
       <c r="C266" s="9"/>
       <c r="D266" s="9"/>
       <c r="E266" s="11"/>
     </row>
     <row r="267" spans="1:5">
-      <c r="A267" s="19"/>
+      <c r="A267" s="23"/>
       <c r="B267" s="9"/>
       <c r="C267" s="9"/>
       <c r="D267" s="9"/>
       <c r="E267" s="11"/>
     </row>
     <row r="268" spans="1:5">
-      <c r="A268" s="19"/>
+      <c r="A268" s="23"/>
       <c r="B268" s="9"/>
       <c r="C268" s="9"/>
       <c r="D268" s="9"/>
       <c r="E268" s="11"/>
     </row>
     <row r="269" spans="1:5">
-      <c r="A269" s="19"/>
+      <c r="A269" s="23"/>
       <c r="B269" s="9"/>
       <c r="C269" s="9"/>
       <c r="D269" s="9"/>
       <c r="E269" s="11"/>
     </row>
     <row r="270" spans="1:5">
-      <c r="A270" s="19"/>
+      <c r="A270" s="23"/>
       <c r="B270" s="9"/>
       <c r="C270" s="9"/>
       <c r="D270" s="9"/>
       <c r="E270" s="11"/>
     </row>
     <row r="271" spans="1:5">
-      <c r="A271" s="19"/>
+      <c r="A271" s="23"/>
       <c r="B271" s="9"/>
       <c r="C271" s="9"/>
       <c r="D271" s="9"/>
       <c r="E271" s="11"/>
     </row>
     <row r="272" spans="1:5">
-      <c r="A272" s="19"/>
+      <c r="A272" s="23"/>
       <c r="B272" s="9"/>
       <c r="C272" s="9"/>
       <c r="D272" s="9"/>
       <c r="E272" s="11"/>
     </row>
     <row r="273" spans="1:5">
-      <c r="A273" s="19"/>
+      <c r="A273" s="23"/>
       <c r="B273" s="9"/>
       <c r="C273" s="9"/>
       <c r="D273" s="9"/>
       <c r="E273" s="11"/>
     </row>
     <row r="274" spans="1:5">
-      <c r="A274" s="19"/>
+      <c r="A274" s="23"/>
       <c r="B274" s="9"/>
       <c r="C274" s="9"/>
       <c r="D274" s="9"/>
       <c r="E274" s="11"/>
     </row>
     <row r="275" spans="1:5">
-      <c r="A275" s="19"/>
+      <c r="A275" s="23"/>
       <c r="B275" s="9"/>
       <c r="C275" s="9"/>
       <c r="D275" s="9"/>
       <c r="E275" s="11"/>
     </row>
     <row r="276" spans="1:5">
-      <c r="A276" s="19"/>
+      <c r="A276" s="23"/>
       <c r="B276" s="9"/>
       <c r="C276" s="9"/>
       <c r="D276" s="9"/>
       <c r="E276" s="11"/>
     </row>
     <row r="277" spans="1:5">
-      <c r="A277" s="19"/>
+      <c r="A277" s="23"/>
       <c r="B277" s="9"/>
       <c r="C277" s="9"/>
       <c r="D277" s="9"/>
       <c r="E277" s="11"/>
     </row>
     <row r="278" spans="1:5">
-      <c r="A278" s="19"/>
+      <c r="A278" s="23"/>
       <c r="B278" s="9"/>
       <c r="C278" s="9"/>
       <c r="D278" s="9"/>
       <c r="E278" s="11"/>
     </row>
     <row r="279" spans="1:5">
-      <c r="A279" s="19"/>
+      <c r="A279" s="23"/>
       <c r="B279" s="9"/>
       <c r="C279" s="9"/>
       <c r="D279" s="9"/>
       <c r="E279" s="11"/>
     </row>
     <row r="280" spans="1:5">
-      <c r="A280" s="19"/>
+      <c r="A280" s="23"/>
       <c r="B280" s="9"/>
       <c r="C280" s="9"/>
       <c r="D280" s="9"/>
       <c r="E280" s="11"/>
     </row>
     <row r="281" spans="1:5">
-      <c r="A281" s="19"/>
+      <c r="A281" s="23"/>
       <c r="B281" s="9"/>
       <c r="C281" s="9"/>
       <c r="D281" s="9"/>
       <c r="E281" s="11"/>
     </row>
     <row r="282" spans="1:5">
-      <c r="A282" s="19"/>
+      <c r="A282" s="23"/>
       <c r="B282" s="9"/>
       <c r="C282" s="9"/>
       <c r="D282" s="9"/>
       <c r="E282" s="11"/>
     </row>
     <row r="283" spans="1:5">
-      <c r="A283" s="19"/>
+      <c r="A283" s="23"/>
       <c r="B283" s="9"/>
       <c r="C283" s="9"/>
       <c r="D283" s="9"/>
       <c r="E283" s="11"/>
     </row>
     <row r="284" spans="1:5">
-      <c r="A284" s="19"/>
+      <c r="A284" s="23"/>
       <c r="B284" s="9"/>
       <c r="C284" s="9"/>
       <c r="D284" s="9"/>
       <c r="E284" s="11"/>
     </row>
     <row r="285" spans="1:5">
-      <c r="A285" s="19"/>
+      <c r="A285" s="23"/>
       <c r="B285" s="9"/>
       <c r="C285" s="9"/>
       <c r="D285" s="9"/>
       <c r="E285" s="11"/>
     </row>
     <row r="286" spans="1:5">
-      <c r="A286" s="19"/>
+      <c r="A286" s="23"/>
       <c r="B286" s="9"/>
       <c r="C286" s="9"/>
       <c r="D286" s="9"/>
       <c r="E286" s="11"/>
     </row>
     <row r="287" spans="1:5">
-      <c r="A287" s="19"/>
+      <c r="A287" s="23"/>
       <c r="B287" s="9"/>
       <c r="C287" s="9"/>
       <c r="D287" s="9"/>
       <c r="E287" s="11"/>
     </row>
     <row r="288" spans="1:5">
-      <c r="A288" s="19"/>
+      <c r="A288" s="23"/>
       <c r="B288" s="9"/>
       <c r="C288" s="9"/>
       <c r="D288" s="9"/>
       <c r="E288" s="11"/>
     </row>
     <row r="289" spans="1:5">
-      <c r="A289" s="19"/>
+      <c r="A289" s="23"/>
       <c r="B289" s="9"/>
       <c r="C289" s="9"/>
       <c r="D289" s="9"/>
       <c r="E289" s="11"/>
     </row>
     <row r="290" spans="1:5">
-      <c r="A290" s="19"/>
+      <c r="A290" s="23"/>
       <c r="B290" s="9"/>
       <c r="C290" s="9"/>
       <c r="D290" s="9"/>
       <c r="E290" s="11"/>
     </row>
     <row r="291" spans="1:5">
-      <c r="A291" s="19"/>
+      <c r="A291" s="23"/>
       <c r="B291" s="9"/>
       <c r="C291" s="9"/>
       <c r="D291" s="9"/>
       <c r="E291" s="11"/>
     </row>
     <row r="292" spans="1:5">
-      <c r="A292" s="19"/>
+      <c r="A292" s="23"/>
       <c r="B292" s="9"/>
       <c r="C292" s="9"/>
       <c r="D292" s="9"/>
       <c r="E292" s="11"/>
     </row>
     <row r="293" spans="1:5">
-      <c r="A293" s="19"/>
+      <c r="A293" s="23"/>
       <c r="B293" s="9"/>
       <c r="C293" s="9"/>
       <c r="D293" s="9"/>
       <c r="E293" s="11"/>
     </row>
     <row r="294" spans="1:5">
-      <c r="A294" s="19"/>
+      <c r="A294" s="23"/>
       <c r="B294" s="9"/>
       <c r="C294" s="9"/>
       <c r="D294" s="9"/>
       <c r="E294" s="11"/>
     </row>
     <row r="295" spans="1:5">
-      <c r="A295" s="19"/>
+      <c r="A295" s="23"/>
       <c r="B295" s="9"/>
       <c r="C295" s="9"/>
       <c r="D295" s="9"/>
       <c r="E295" s="11"/>
     </row>
     <row r="296" spans="1:5">
-      <c r="A296" s="19"/>
+      <c r="A296" s="23"/>
       <c r="B296" s="9"/>
       <c r="C296" s="9"/>
       <c r="D296" s="9"/>
       <c r="E296" s="11"/>
     </row>
     <row r="297" spans="1:5">
-      <c r="A297" s="19"/>
+      <c r="A297" s="23"/>
       <c r="B297" s="9"/>
       <c r="C297" s="9"/>
       <c r="D297" s="9"/>
       <c r="E297" s="11"/>
     </row>
     <row r="298" spans="1:5">
-      <c r="A298" s="19"/>
+      <c r="A298" s="23"/>
       <c r="B298" s="9"/>
       <c r="C298" s="9"/>
       <c r="D298" s="9"/>
       <c r="E298" s="11"/>
     </row>
     <row r="299" spans="1:5">
-      <c r="A299" s="19"/>
+      <c r="A299" s="23"/>
       <c r="B299" s="9"/>
       <c r="C299" s="9"/>
       <c r="D299" s="9"/>
       <c r="E299" s="11"/>
     </row>
     <row r="300" spans="1:5">
-      <c r="A300" s="19"/>
+      <c r="A300" s="23"/>
       <c r="B300" s="9"/>
       <c r="C300" s="9"/>
       <c r="D300" s="9"/>
       <c r="E300" s="11"/>
     </row>
     <row r="301" spans="1:5">
-      <c r="A301" s="19"/>
+      <c r="A301" s="23"/>
       <c r="B301" s="9"/>
       <c r="C301" s="9"/>
       <c r="D301" s="9"/>
       <c r="E301" s="11"/>
     </row>
     <row r="302" spans="1:5">
-      <c r="A302" s="19"/>
+      <c r="A302" s="23"/>
       <c r="B302" s="9"/>
       <c r="C302" s="9"/>
       <c r="D302" s="9"/>
       <c r="E302" s="11"/>
     </row>
     <row r="303" spans="1:5">
-      <c r="A303" s="19"/>
+      <c r="A303" s="23"/>
       <c r="B303" s="9"/>
       <c r="C303" s="9"/>
       <c r="D303" s="9"/>
       <c r="E303" s="11"/>
     </row>
     <row r="304" spans="1:5">
-      <c r="A304" s="19"/>
+      <c r="A304" s="23"/>
       <c r="B304" s="9"/>
       <c r="C304" s="9"/>
       <c r="D304" s="9"/>
       <c r="E304" s="11"/>
     </row>
     <row r="305" spans="1:5">
-      <c r="A305" s="19"/>
+      <c r="A305" s="23"/>
       <c r="B305" s="9"/>
       <c r="C305" s="9"/>
       <c r="D305" s="9"/>
       <c r="E305" s="11"/>
     </row>
     <row r="306" spans="1:5">
-      <c r="A306" s="19"/>
+      <c r="A306" s="23"/>
       <c r="B306" s="9"/>
       <c r="C306" s="9"/>
       <c r="D306" s="9"/>
       <c r="E306" s="11"/>
     </row>
     <row r="307" spans="1:5">
-      <c r="A307" s="19"/>
+      <c r="A307" s="23"/>
       <c r="B307" s="9"/>
       <c r="C307" s="9"/>
       <c r="D307" s="9"/>
       <c r="E307" s="11"/>
     </row>
     <row r="308" spans="1:5">
-      <c r="A308" s="19"/>
+      <c r="A308" s="23"/>
       <c r="B308" s="9"/>
       <c r="C308" s="9"/>
       <c r="D308" s="9"/>
       <c r="E308" s="11"/>
     </row>
     <row r="309" spans="1:5">
-      <c r="A309" s="19"/>
+      <c r="A309" s="23"/>
       <c r="B309" s="9"/>
       <c r="C309" s="9"/>
       <c r="D309" s="9"/>
       <c r="E309" s="11"/>
     </row>
     <row r="310" spans="1:5">
-      <c r="A310" s="19"/>
+      <c r="A310" s="23"/>
       <c r="B310" s="9"/>
       <c r="C310" s="9"/>
       <c r="D310" s="9"/>
       <c r="E310" s="11"/>
     </row>
     <row r="311" spans="1:5">
-      <c r="A311" s="19"/>
+      <c r="A311" s="23"/>
       <c r="B311" s="9"/>
       <c r="C311" s="9"/>
       <c r="D311" s="9"/>
       <c r="E311" s="11"/>
     </row>
     <row r="312" spans="1:5">
-      <c r="A312" s="19"/>
+      <c r="A312" s="23"/>
       <c r="B312" s="9"/>
       <c r="C312" s="9"/>
       <c r="D312" s="9"/>
       <c r="E312" s="11"/>
     </row>
     <row r="313" spans="1:5">
-      <c r="A313" s="19"/>
+      <c r="A313" s="23"/>
       <c r="B313" s="9"/>
       <c r="C313" s="9"/>
       <c r="D313" s="9"/>
       <c r="E313" s="11"/>
     </row>
     <row r="314" spans="1:5">
-      <c r="A314" s="19"/>
+      <c r="A314" s="23"/>
       <c r="B314" s="9"/>
       <c r="C314" s="9"/>
       <c r="D314" s="9"/>
       <c r="E314" s="11"/>
     </row>
     <row r="315" spans="1:5">
-      <c r="A315" s="19"/>
+      <c r="A315" s="23"/>
       <c r="B315" s="9"/>
       <c r="C315" s="9"/>
       <c r="D315" s="9"/>
       <c r="E315" s="11"/>
     </row>
     <row r="316" spans="1:5">
-      <c r="A316" s="19"/>
+      <c r="A316" s="23"/>
       <c r="B316" s="9"/>
       <c r="C316" s="9"/>
       <c r="D316" s="9"/>
       <c r="E316" s="11"/>
     </row>
     <row r="317" spans="1:5">
-      <c r="A317" s="19"/>
+      <c r="A317" s="23"/>
       <c r="B317" s="9"/>
       <c r="C317" s="9"/>
       <c r="D317" s="9"/>
       <c r="E317" s="11"/>
     </row>
     <row r="318" spans="1:5">
-      <c r="A318" s="19"/>
+      <c r="A318" s="23"/>
       <c r="B318" s="9"/>
       <c r="C318" s="9"/>
       <c r="D318" s="9"/>
       <c r="E318" s="11"/>
     </row>
     <row r="319" spans="1:5">
-      <c r="A319" s="19"/>
+      <c r="A319" s="23"/>
       <c r="B319" s="9"/>
       <c r="C319" s="9"/>
       <c r="D319" s="9"/>
       <c r="E319" s="11"/>
     </row>
     <row r="320" spans="1:5">
-      <c r="A320" s="19"/>
+      <c r="A320" s="23"/>
       <c r="B320" s="9"/>
       <c r="C320" s="9"/>
       <c r="D320" s="9"/>
       <c r="E320" s="11"/>
     </row>
     <row r="321" spans="1:5">
-      <c r="A321" s="19"/>
+      <c r="A321" s="23"/>
       <c r="B321" s="9"/>
       <c r="C321" s="9"/>
       <c r="D321" s="9"/>
       <c r="E321" s="11"/>
     </row>
     <row r="322" spans="1:5">
-      <c r="A322" s="19"/>
+      <c r="A322" s="23"/>
       <c r="B322" s="9"/>
       <c r="C322" s="9"/>
       <c r="D322" s="9"/>
       <c r="E322" s="11"/>
     </row>
     <row r="323" spans="1:5">
-      <c r="A323" s="19"/>
+      <c r="A323" s="23"/>
       <c r="B323" s="9"/>
       <c r="C323" s="9"/>
       <c r="D323" s="9"/>
       <c r="E323" s="11"/>
     </row>
     <row r="324" spans="1:5">
-      <c r="A324" s="19"/>
+      <c r="A324" s="23"/>
       <c r="B324" s="9"/>
       <c r="C324" s="9"/>
       <c r="D324" s="9"/>
       <c r="E324" s="11"/>
     </row>
     <row r="325" spans="1:5">
-      <c r="A325" s="19"/>
+      <c r="A325" s="23"/>
       <c r="B325" s="9"/>
       <c r="C325" s="9"/>
       <c r="D325" s="9"/>
       <c r="E325" s="11"/>
     </row>
     <row r="326" spans="1:5">
-      <c r="A326" s="19"/>
+      <c r="A326" s="23"/>
       <c r="B326" s="9"/>
       <c r="C326" s="9"/>
       <c r="D326" s="9"/>
       <c r="E326" s="11"/>
     </row>
     <row r="327" spans="1:5">
-      <c r="A327" s="19"/>
+      <c r="A327" s="23"/>
       <c r="B327" s="9"/>
       <c r="C327" s="9"/>
       <c r="D327" s="9"/>
       <c r="E327" s="11"/>
     </row>
     <row r="328" spans="1:5">
-      <c r="A328" s="19"/>
+      <c r="A328" s="23"/>
       <c r="B328" s="9"/>
       <c r="C328" s="9"/>
       <c r="D328" s="9"/>
       <c r="E328" s="11"/>
     </row>
     <row r="329" spans="1:5">
-      <c r="A329" s="19"/>
+      <c r="A329" s="23"/>
       <c r="B329" s="9"/>
       <c r="C329" s="9"/>
       <c r="D329" s="9"/>
       <c r="E329" s="11"/>
     </row>
     <row r="330" spans="1:5">
-      <c r="A330" s="19"/>
+      <c r="A330" s="23"/>
       <c r="B330" s="9"/>
       <c r="C330" s="9"/>
       <c r="D330" s="9"/>
       <c r="E330" s="11"/>
     </row>
     <row r="331" spans="1:5">
-      <c r="A331" s="19"/>
+      <c r="A331" s="23"/>
       <c r="B331" s="9"/>
       <c r="C331" s="9"/>
       <c r="D331" s="9"/>
       <c r="E331" s="11"/>
     </row>
     <row r="332" spans="1:5">
-      <c r="A332" s="19"/>
+      <c r="A332" s="23"/>
       <c r="B332" s="9"/>
       <c r="C332" s="9"/>
       <c r="D332" s="9"/>
       <c r="E332" s="11"/>
     </row>
     <row r="333" spans="1:5">
-      <c r="A333" s="19"/>
+      <c r="A333" s="23"/>
       <c r="B333" s="9"/>
       <c r="C333" s="9"/>
       <c r="D333" s="9"/>
       <c r="E333" s="11"/>
     </row>
     <row r="334" spans="1:5">
-      <c r="A334" s="19"/>
+      <c r="A334" s="23"/>
       <c r="B334" s="9"/>
       <c r="C334" s="9"/>
       <c r="D334" s="9"/>
       <c r="E334" s="11"/>
     </row>
     <row r="335" spans="1:5">
-      <c r="A335" s="19"/>
+      <c r="A335" s="23"/>
       <c r="B335" s="9"/>
       <c r="C335" s="9"/>
       <c r="D335" s="9"/>
       <c r="E335" s="11"/>
     </row>
     <row r="336" spans="1:5">
-      <c r="A336" s="19"/>
+      <c r="A336" s="23"/>
       <c r="B336" s="9"/>
       <c r="C336" s="9"/>
       <c r="D336" s="9"/>
       <c r="E336" s="11"/>
     </row>
     <row r="337" spans="1:5">
-      <c r="A337" s="19"/>
+      <c r="A337" s="23"/>
       <c r="B337" s="9"/>
       <c r="C337" s="9"/>
       <c r="D337" s="9"/>
       <c r="E337" s="11"/>
     </row>
     <row r="338" spans="1:5">
-      <c r="A338" s="19"/>
+      <c r="A338" s="23"/>
       <c r="B338" s="9"/>
       <c r="C338" s="9"/>
       <c r="D338" s="9"/>
       <c r="E338" s="11"/>
     </row>
     <row r="339" spans="1:5">
-      <c r="A339" s="19"/>
+      <c r="A339" s="23"/>
       <c r="B339" s="9"/>
       <c r="C339" s="9"/>
       <c r="D339" s="9"/>
       <c r="E339" s="11"/>
     </row>
     <row r="340" spans="1:5">
-      <c r="A340" s="19"/>
+      <c r="A340" s="23"/>
       <c r="B340" s="9"/>
       <c r="C340" s="9"/>
       <c r="D340" s="9"/>
       <c r="E340" s="11"/>
     </row>
     <row r="341" spans="1:5">
-      <c r="A341" s="19"/>
+      <c r="A341" s="23"/>
       <c r="B341" s="9"/>
       <c r="C341" s="9"/>
       <c r="D341" s="9"/>
       <c r="E341" s="11"/>
     </row>
     <row r="342" spans="1:5">
-      <c r="A342" s="19"/>
+      <c r="A342" s="23"/>
       <c r="B342" s="9"/>
       <c r="C342" s="9"/>
       <c r="D342" s="9"/>
       <c r="E342" s="11"/>
     </row>
     <row r="343" spans="1:5">
-      <c r="A343" s="19"/>
+      <c r="A343" s="23"/>
       <c r="B343" s="9"/>
       <c r="C343" s="9"/>
       <c r="D343" s="9"/>
       <c r="E343" s="11"/>
     </row>
     <row r="344" spans="1:5">
-      <c r="A344" s="19"/>
+      <c r="A344" s="23"/>
       <c r="B344" s="9"/>
       <c r="C344" s="9"/>
       <c r="D344" s="9"/>
       <c r="E344" s="11"/>
     </row>
     <row r="345" spans="1:5">
-      <c r="A345" s="19"/>
+      <c r="A345" s="23"/>
       <c r="B345" s="9"/>
       <c r="C345" s="9"/>
       <c r="D345" s="9"/>
       <c r="E345" s="11"/>
     </row>
     <row r="346" spans="1:5">
-      <c r="A346" s="19"/>
+      <c r="A346" s="23"/>
       <c r="B346" s="9"/>
       <c r="C346" s="9"/>
       <c r="D346" s="9"/>
       <c r="E346" s="11"/>
     </row>
     <row r="347" spans="1:5">
-      <c r="A347" s="19"/>
+      <c r="A347" s="23"/>
       <c r="B347" s="9"/>
       <c r="C347" s="9"/>
       <c r="D347" s="9"/>
       <c r="E347" s="11"/>
     </row>
     <row r="348" spans="1:5">
-      <c r="A348" s="19"/>
+      <c r="A348" s="23"/>
       <c r="B348" s="9"/>
       <c r="C348" s="9"/>
       <c r="D348" s="9"/>
       <c r="E348" s="11"/>
     </row>
     <row r="349" spans="1:5">
-      <c r="A349" s="19"/>
+      <c r="A349" s="23"/>
       <c r="B349" s="9"/>
       <c r="C349" s="9"/>
       <c r="D349" s="9"/>
       <c r="E349" s="11"/>
     </row>
     <row r="350" spans="1:5">
-      <c r="A350" s="19"/>
+      <c r="A350" s="23"/>
       <c r="B350" s="9"/>
       <c r="C350" s="9"/>
       <c r="D350" s="9"/>
       <c r="E350" s="11"/>
     </row>
     <row r="351" spans="1:5">
-      <c r="A351" s="19"/>
+      <c r="A351" s="23"/>
       <c r="B351" s="9"/>
       <c r="C351" s="9"/>
       <c r="D351" s="9"/>
       <c r="E351" s="11"/>
     </row>
     <row r="352" spans="1:5">
-      <c r="A352" s="19"/>
+      <c r="A352" s="23"/>
       <c r="B352" s="9"/>
       <c r="C352" s="9"/>
       <c r="D352" s="9"/>
       <c r="E352" s="11"/>
     </row>
     <row r="353" spans="1:5">
-      <c r="A353" s="19"/>
+      <c r="A353" s="23"/>
       <c r="B353" s="9"/>
       <c r="C353" s="9"/>
       <c r="D353" s="9"/>
       <c r="E353" s="11"/>
     </row>
     <row r="354" spans="1:5">
-      <c r="A354" s="19"/>
+      <c r="A354" s="23"/>
       <c r="B354" s="9"/>
       <c r="C354" s="9"/>
       <c r="D354" s="9"/>
       <c r="E354" s="11"/>
     </row>
     <row r="355" spans="1:5">
-      <c r="A355" s="19"/>
+      <c r="A355" s="23"/>
       <c r="B355" s="9"/>
       <c r="C355" s="9"/>
       <c r="D355" s="9"/>
       <c r="E355" s="11"/>
     </row>
     <row r="356" spans="1:5">
-      <c r="A356" s="19"/>
+      <c r="A356" s="23"/>
       <c r="B356" s="9"/>
       <c r="C356" s="9"/>
       <c r="D356" s="9"/>
       <c r="E356" s="11"/>
     </row>
     <row r="357" spans="1:5">
-      <c r="A357" s="19"/>
+      <c r="A357" s="23"/>
       <c r="B357" s="9"/>
       <c r="C357" s="9"/>
       <c r="D357" s="9"/>
       <c r="E357" s="11"/>
     </row>
     <row r="358" spans="1:5">
-      <c r="A358" s="19"/>
+      <c r="A358" s="23"/>
       <c r="B358" s="9"/>
       <c r="C358" s="9"/>
       <c r="D358" s="9"/>
       <c r="E358" s="11"/>
     </row>
     <row r="359" spans="1:5">
-      <c r="A359" s="19"/>
+      <c r="A359" s="23"/>
       <c r="B359" s="9"/>
       <c r="C359" s="9"/>
       <c r="D359" s="9"/>
       <c r="E359" s="11"/>
     </row>
     <row r="360" spans="1:5">
-      <c r="A360" s="19"/>
+      <c r="A360" s="23"/>
       <c r="B360" s="9"/>
       <c r="C360" s="9"/>
       <c r="D360" s="9"/>
       <c r="E360" s="11"/>
     </row>
     <row r="361" spans="1:5">
-      <c r="A361" s="19"/>
+      <c r="A361" s="23"/>
       <c r="B361" s="9"/>
       <c r="C361" s="9"/>
       <c r="D361" s="9"/>
       <c r="E361" s="11"/>
     </row>
     <row r="362" spans="1:5">
-      <c r="A362" s="19"/>
+      <c r="A362" s="23"/>
       <c r="B362" s="9"/>
       <c r="C362" s="9"/>
       <c r="D362" s="9"/>
       <c r="E362" s="11"/>
     </row>
     <row r="363" spans="1:5">
-      <c r="A363" s="19"/>
+      <c r="A363" s="23"/>
       <c r="B363" s="9"/>
       <c r="C363" s="9"/>
       <c r="D363" s="9"/>
       <c r="E363" s="11"/>
     </row>
     <row r="364" spans="1:5">
-      <c r="A364" s="19"/>
+      <c r="A364" s="23"/>
       <c r="B364" s="9"/>
       <c r="C364" s="9"/>
       <c r="D364" s="9"/>
       <c r="E364" s="11"/>
     </row>
     <row r="365" spans="1:5">
-      <c r="A365" s="19"/>
+      <c r="A365" s="23"/>
       <c r="B365" s="9"/>
       <c r="C365" s="9"/>
       <c r="D365" s="9"/>
       <c r="E365" s="11"/>
     </row>
     <row r="366" spans="1:5">
-      <c r="A366" s="19"/>
+      <c r="A366" s="23"/>
       <c r="B366" s="9"/>
       <c r="C366" s="9"/>
       <c r="D366" s="9"/>
       <c r="E366" s="11"/>
     </row>
     <row r="367" spans="1:5">
-      <c r="A367" s="19"/>
+      <c r="A367" s="23"/>
       <c r="B367" s="9"/>
       <c r="C367" s="9"/>
       <c r="D367" s="9"/>
       <c r="E367" s="11"/>
     </row>
     <row r="368" spans="1:5">
-      <c r="A368" s="19"/>
+      <c r="A368" s="23"/>
       <c r="B368" s="9"/>
       <c r="C368" s="9"/>
       <c r="D368" s="9"/>
       <c r="E368" s="11"/>
     </row>
     <row r="369" spans="1:5">
-      <c r="A369" s="19"/>
+      <c r="A369" s="23"/>
       <c r="B369" s="9"/>
       <c r="C369" s="9"/>
       <c r="D369" s="9"/>
       <c r="E369" s="11"/>
     </row>
     <row r="370" spans="1:5">
-      <c r="A370" s="19"/>
+      <c r="A370" s="23"/>
       <c r="B370" s="9"/>
       <c r="C370" s="9"/>
       <c r="D370" s="9"/>
       <c r="E370" s="11"/>
     </row>
     <row r="371" spans="1:5">
-      <c r="A371" s="19"/>
+      <c r="A371" s="23"/>
       <c r="B371" s="9"/>
       <c r="C371" s="9"/>
       <c r="D371" s="9"/>
       <c r="E371" s="11"/>
     </row>
     <row r="372" spans="1:5">
-      <c r="A372" s="19"/>
+      <c r="A372" s="23"/>
       <c r="B372" s="9"/>
       <c r="C372" s="9"/>
       <c r="D372" s="9"/>
       <c r="E372" s="11"/>
     </row>
     <row r="373" spans="1:5">
-      <c r="A373" s="19"/>
+      <c r="A373" s="23"/>
       <c r="B373" s="9"/>
       <c r="C373" s="9"/>
       <c r="D373" s="9"/>
       <c r="E373" s="11"/>
     </row>
     <row r="374" spans="1:5">
-      <c r="A374" s="19"/>
+      <c r="A374" s="23"/>
       <c r="B374" s="9"/>
       <c r="C374" s="9"/>
       <c r="D374" s="9"/>
       <c r="E374" s="11"/>
     </row>
     <row r="375" spans="1:5">
-      <c r="A375" s="19"/>
+      <c r="A375" s="23"/>
       <c r="B375" s="9"/>
       <c r="C375" s="9"/>
       <c r="D375" s="9"/>
       <c r="E375" s="11"/>
     </row>
     <row r="376" spans="1:5">
-      <c r="A376" s="19"/>
+      <c r="A376" s="23"/>
       <c r="B376" s="9"/>
       <c r="C376" s="9"/>
       <c r="D376" s="9"/>
       <c r="E376" s="11"/>
     </row>
     <row r="377" spans="1:5">
-      <c r="A377" s="19"/>
+      <c r="A377" s="23"/>
       <c r="B377" s="9"/>
       <c r="C377" s="9"/>
       <c r="D377" s="9"/>
       <c r="E377" s="11"/>
     </row>
     <row r="378" spans="1:5">
-      <c r="A378" s="19"/>
+      <c r="A378" s="23"/>
       <c r="B378" s="9"/>
       <c r="C378" s="9"/>
       <c r="D378" s="9"/>
       <c r="E378" s="11"/>
     </row>
     <row r="379" spans="1:5">
-      <c r="A379" s="19"/>
+      <c r="A379" s="23"/>
       <c r="B379" s="9"/>
       <c r="C379" s="9"/>
       <c r="D379" s="9"/>
       <c r="E379" s="11"/>
     </row>
     <row r="380" spans="1:5">
-      <c r="A380" s="19"/>
+      <c r="A380" s="23"/>
       <c r="B380" s="9"/>
       <c r="C380" s="9"/>
       <c r="D380" s="9"/>
       <c r="E380" s="11"/>
     </row>
     <row r="381" spans="1:5">
-      <c r="A381" s="19"/>
+      <c r="A381" s="23"/>
       <c r="B381" s="9"/>
       <c r="C381" s="9"/>
       <c r="D381" s="9"/>
       <c r="E381" s="11"/>
     </row>
     <row r="382" spans="1:5">
-      <c r="A382" s="19"/>
+      <c r="A382" s="23"/>
       <c r="B382" s="9"/>
       <c r="C382" s="9"/>
       <c r="D382" s="9"/>
       <c r="E382" s="11"/>
     </row>
     <row r="383" spans="1:5">
-      <c r="A383" s="19"/>
+      <c r="A383" s="23"/>
       <c r="B383" s="9"/>
       <c r="C383" s="9"/>
       <c r="D383" s="9"/>
       <c r="E383" s="11"/>
     </row>
     <row r="384" spans="1:5">
-      <c r="A384" s="19"/>
+      <c r="A384" s="23"/>
       <c r="B384" s="9"/>
       <c r="C384" s="9"/>
       <c r="D384" s="9"/>
       <c r="E384" s="11"/>
     </row>
     <row r="385" spans="1:5">
-      <c r="A385" s="19"/>
+      <c r="A385" s="23"/>
       <c r="B385" s="9"/>
       <c r="C385" s="9"/>
       <c r="D385" s="9"/>
       <c r="E385" s="11"/>
     </row>
     <row r="386" spans="1:5">
-      <c r="A386" s="19"/>
+      <c r="A386" s="23"/>
       <c r="B386" s="9"/>
       <c r="C386" s="9"/>
       <c r="D386" s="9"/>
       <c r="E386" s="11"/>
     </row>
     <row r="387" spans="1:5">
-      <c r="A387" s="19"/>
+      <c r="A387" s="23"/>
       <c r="B387" s="9"/>
       <c r="C387" s="9"/>
       <c r="D387" s="9"/>
       <c r="E387" s="11"/>
     </row>
     <row r="388" spans="1:5">
-      <c r="A388" s="19"/>
+      <c r="A388" s="23"/>
       <c r="B388" s="9"/>
       <c r="C388" s="9"/>
       <c r="D388" s="9"/>
       <c r="E388" s="11"/>
     </row>
     <row r="389" spans="1:5">
-      <c r="A389" s="19"/>
+      <c r="A389" s="23"/>
       <c r="B389" s="9"/>
       <c r="C389" s="9"/>
       <c r="D389" s="9"/>
       <c r="E389" s="11"/>
     </row>
     <row r="390" spans="1:5">
-      <c r="A390" s="19"/>
+      <c r="A390" s="23"/>
       <c r="B390" s="9"/>
       <c r="C390" s="9"/>
       <c r="D390" s="9"/>
       <c r="E390" s="11"/>
     </row>
     <row r="391" spans="1:5">
-      <c r="A391" s="19"/>
+      <c r="A391" s="23"/>
       <c r="B391" s="9"/>
       <c r="C391" s="9"/>
       <c r="D391" s="9"/>
       <c r="E391" s="11"/>
     </row>
     <row r="392" spans="1:5">
-      <c r="A392" s="19"/>
+      <c r="A392" s="23"/>
       <c r="B392" s="9"/>
       <c r="C392" s="9"/>
       <c r="D392" s="9"/>
       <c r="E392" s="11"/>
     </row>
     <row r="393" spans="1:5">
-      <c r="A393" s="19"/>
+      <c r="A393" s="23"/>
       <c r="B393" s="9"/>
       <c r="C393" s="9"/>
       <c r="D393" s="9"/>
       <c r="E393" s="11"/>
     </row>
     <row r="394" spans="1:5">
-      <c r="A394" s="20"/>
+      <c r="A394" s="24"/>
       <c r="B394" s="9"/>
       <c r="C394" s="9"/>
       <c r="D394" s="9"/>
       <c r="E394" s="11"/>
     </row>
     <row r="395" spans="1:5">
-      <c r="A395" s="16"/>
+      <c r="A395" s="20"/>
       <c r="B395" s="9"/>
       <c r="C395" s="9"/>
       <c r="D395" s="9"/>
       <c r="E395" s="11"/>
     </row>
     <row r="396" spans="1:5">
-      <c r="A396" s="19"/>
+      <c r="A396" s="23"/>
       <c r="B396" s="9"/>
       <c r="C396" s="9"/>
       <c r="D396" s="9"/>
       <c r="E396" s="11"/>
     </row>
     <row r="397" spans="1:5">
-      <c r="A397" s="19"/>
+      <c r="A397" s="23"/>
       <c r="B397" s="9"/>
       <c r="C397" s="9"/>
       <c r="D397" s="9"/>
       <c r="E397" s="11"/>
     </row>
     <row r="398" spans="1:5">
-      <c r="A398" s="19"/>
+      <c r="A398" s="23"/>
       <c r="B398" s="9"/>
       <c r="C398" s="9"/>
       <c r="D398" s="9"/>
       <c r="E398" s="11"/>
     </row>
     <row r="399" spans="1:5">
-      <c r="A399" s="19"/>
+      <c r="A399" s="23"/>
       <c r="B399" s="9"/>
       <c r="C399" s="9"/>
       <c r="D399" s="9"/>
       <c r="E399" s="11"/>
     </row>
     <row r="400" spans="1:5">
-      <c r="A400" s="19"/>
+      <c r="A400" s="23"/>
       <c r="B400" s="9"/>
       <c r="C400" s="9"/>
       <c r="D400" s="9"/>
       <c r="E400" s="11"/>
     </row>
     <row r="401" spans="1:5">
-      <c r="A401" s="19"/>
+      <c r="A401" s="23"/>
       <c r="B401" s="9"/>
       <c r="C401" s="9"/>
       <c r="D401" s="9"/>
       <c r="E401" s="11"/>
     </row>
     <row r="402" spans="1:5">
-      <c r="A402" s="19"/>
+      <c r="A402" s="23"/>
       <c r="B402" s="9"/>
       <c r="C402" s="9"/>
       <c r="D402" s="9"/>
       <c r="E402" s="11"/>
     </row>
     <row r="403" spans="1:5">
-      <c r="A403" s="19"/>
+      <c r="A403" s="23"/>
       <c r="B403" s="9"/>
       <c r="C403" s="9"/>
       <c r="D403" s="9"/>
       <c r="E403" s="11"/>
     </row>
     <row r="404" spans="1:5">
-      <c r="A404" s="19"/>
+      <c r="A404" s="23"/>
       <c r="B404" s="9"/>
       <c r="C404" s="9"/>
       <c r="D404" s="9"/>
       <c r="E404" s="11"/>
     </row>
     <row r="405" spans="1:5">
-      <c r="A405" s="19"/>
+      <c r="A405" s="23"/>
       <c r="B405" s="9"/>
       <c r="C405" s="9"/>
       <c r="D405" s="9"/>
       <c r="E405" s="11"/>
     </row>
     <row r="406" spans="1:5">
-      <c r="A406" s="19"/>
+      <c r="A406" s="23"/>
       <c r="B406" s="9"/>
       <c r="C406" s="9"/>
       <c r="D406" s="9"/>
       <c r="E406" s="11"/>
     </row>
     <row r="407" spans="1:5">
-      <c r="A407" s="19"/>
+      <c r="A407" s="23"/>
       <c r="B407" s="9"/>
       <c r="C407" s="9"/>
       <c r="D407" s="9"/>
       <c r="E407" s="11"/>
     </row>
     <row r="408" spans="1:5">
-      <c r="A408" s="19"/>
+      <c r="A408" s="23"/>
       <c r="B408" s="9"/>
       <c r="C408" s="9"/>
       <c r="D408" s="9"/>
       <c r="E408" s="11"/>
     </row>
     <row r="409" spans="1:5">
-      <c r="A409" s="19"/>
+      <c r="A409" s="23"/>
       <c r="B409" s="9"/>
       <c r="C409" s="9"/>
       <c r="D409" s="9"/>
       <c r="E409" s="11"/>
     </row>
     <row r="410" spans="1:5">
-      <c r="A410" s="19"/>
+      <c r="A410" s="23"/>
       <c r="B410" s="9"/>
       <c r="C410" s="9"/>
       <c r="D410" s="9"/>
       <c r="E410" s="11"/>
     </row>
     <row r="411" spans="1:5">
-      <c r="A411" s="19"/>
+      <c r="A411" s="23"/>
       <c r="B411" s="9"/>
       <c r="C411" s="9"/>
       <c r="D411" s="9"/>
       <c r="E411" s="11"/>
     </row>
     <row r="412" spans="1:5">
-      <c r="A412" s="19"/>
+      <c r="A412" s="23"/>
       <c r="B412" s="9"/>
       <c r="C412" s="9"/>
       <c r="D412" s="9"/>
       <c r="E412" s="11"/>
     </row>
     <row r="413" spans="1:5">
-      <c r="A413" s="19"/>
+      <c r="A413" s="23"/>
       <c r="B413" s="9"/>
       <c r="C413" s="9"/>
       <c r="D413" s="9"/>
       <c r="E413" s="11"/>
     </row>
     <row r="414" spans="1:5">
-      <c r="A414" s="19"/>
+      <c r="A414" s="23"/>
       <c r="B414" s="9"/>
       <c r="C414" s="9"/>
       <c r="D414" s="9"/>
       <c r="E414" s="11"/>
     </row>
     <row r="415" spans="1:5">
-      <c r="A415" s="19"/>
+      <c r="A415" s="23"/>
       <c r="B415" s="9"/>
       <c r="C415" s="9"/>
       <c r="D415" s="9"/>
       <c r="E415" s="11"/>
     </row>
     <row r="416" spans="1:5">
-      <c r="A416" s="19"/>
+      <c r="A416" s="23"/>
       <c r="B416" s="9"/>
       <c r="C416" s="9"/>
       <c r="D416" s="9"/>
       <c r="E416" s="11"/>
     </row>
     <row r="417" spans="1:5">
-      <c r="A417" s="19"/>
+      <c r="A417" s="23"/>
       <c r="B417" s="9"/>
       <c r="C417" s="9"/>
       <c r="D417" s="9"/>
       <c r="E417" s="11"/>
     </row>
     <row r="418" spans="1:5">
-      <c r="A418" s="19"/>
+      <c r="A418" s="23"/>
       <c r="B418" s="9"/>
       <c r="C418" s="9"/>
       <c r="D418" s="9"/>
       <c r="E418" s="11"/>
     </row>
     <row r="419" spans="1:5">
-      <c r="A419" s="19"/>
+      <c r="A419" s="23"/>
       <c r="B419" s="9"/>
       <c r="C419" s="9"/>
       <c r="D419" s="9"/>
       <c r="E419" s="11"/>
     </row>
     <row r="420" spans="1:5">
-      <c r="A420" s="19"/>
+      <c r="A420" s="23"/>
       <c r="B420" s="9"/>
       <c r="C420" s="9"/>
       <c r="D420" s="9"/>
       <c r="E420" s="11"/>
     </row>
     <row r="421" spans="1:5">
-      <c r="A421" s="19"/>
+      <c r="A421" s="23"/>
       <c r="B421" s="9"/>
       <c r="C421" s="9"/>
       <c r="D421" s="9"/>
       <c r="E421" s="11"/>
     </row>
     <row r="422" spans="1:5">
-      <c r="A422" s="19"/>
+      <c r="A422" s="23"/>
       <c r="B422" s="9"/>
       <c r="C422" s="9"/>
       <c r="D422" s="9"/>
       <c r="E422" s="11"/>
     </row>
     <row r="423" spans="1:5">
-      <c r="A423" s="19"/>
+      <c r="A423" s="23"/>
       <c r="B423" s="9"/>
       <c r="C423" s="9"/>
       <c r="D423" s="9"/>
       <c r="E423" s="11"/>
     </row>
     <row r="424" spans="1:5">
-      <c r="A424" s="19"/>
+      <c r="A424" s="23"/>
       <c r="B424" s="9"/>
       <c r="C424" s="9"/>
       <c r="D424" s="9"/>
       <c r="E424" s="11"/>
     </row>
     <row r="425" spans="1:5">
-      <c r="A425" s="19"/>
+      <c r="A425" s="23"/>
       <c r="B425" s="9"/>
       <c r="C425" s="9"/>
       <c r="D425" s="9"/>
       <c r="E425" s="11"/>
     </row>
     <row r="426" spans="1:5">
-      <c r="A426" s="19"/>
+      <c r="A426" s="23"/>
       <c r="B426" s="9"/>
       <c r="C426" s="9"/>
       <c r="D426" s="9"/>
       <c r="E426" s="11"/>
     </row>
     <row r="427" spans="1:5">
-      <c r="A427" s="19"/>
+      <c r="A427" s="23"/>
       <c r="B427" s="9"/>
       <c r="C427" s="9"/>
       <c r="D427" s="9"/>
       <c r="E427" s="11"/>
     </row>
     <row r="428" spans="1:5">
-      <c r="A428" s="19"/>
+      <c r="A428" s="23"/>
       <c r="B428" s="9"/>
       <c r="C428" s="9"/>
       <c r="D428" s="9"/>
       <c r="E428" s="11"/>
     </row>
     <row r="429" spans="1:5">
-      <c r="A429" s="19"/>
+      <c r="A429" s="23"/>
       <c r="B429" s="9"/>
       <c r="C429" s="9"/>
       <c r="D429" s="9"/>
       <c r="E429" s="11"/>
     </row>
     <row r="430" spans="1:5">
-      <c r="A430" s="19"/>
+      <c r="A430" s="23"/>
       <c r="B430" s="9"/>
       <c r="C430" s="9"/>
       <c r="D430" s="9"/>
       <c r="E430" s="11"/>
     </row>
     <row r="431" spans="1:5">
-      <c r="A431" s="19"/>
+      <c r="A431" s="23"/>
       <c r="B431" s="9"/>
       <c r="C431" s="9"/>
       <c r="D431" s="9"/>
       <c r="E431" s="11"/>
     </row>
     <row r="432" spans="1:5">
-      <c r="A432" s="19"/>
+      <c r="A432" s="23"/>
       <c r="B432" s="9"/>
       <c r="C432" s="9"/>
       <c r="D432" s="9"/>
       <c r="E432" s="11"/>
     </row>
     <row r="433" spans="1:5">
-      <c r="A433" s="19"/>
+      <c r="A433" s="23"/>
       <c r="B433" s="9"/>
       <c r="C433" s="9"/>
       <c r="D433" s="9"/>
       <c r="E433" s="11"/>
     </row>
     <row r="434" spans="1:5">
-      <c r="A434" s="19"/>
+      <c r="A434" s="23"/>
       <c r="B434" s="9"/>
       <c r="C434" s="9"/>
       <c r="D434" s="9"/>
       <c r="E434" s="11"/>
     </row>
     <row r="435" spans="1:5">
-      <c r="A435" s="19"/>
+      <c r="A435" s="23"/>
       <c r="B435" s="9"/>
       <c r="C435" s="9"/>
       <c r="D435" s="9"/>
       <c r="E435" s="11"/>
     </row>
     <row r="436" spans="1:5">
-      <c r="A436" s="19"/>
+      <c r="A436" s="23"/>
       <c r="B436" s="9"/>
       <c r="C436" s="9"/>
       <c r="D436" s="9"/>
       <c r="E436" s="11"/>
     </row>
     <row r="437" spans="1:5">
-      <c r="A437" s="19"/>
+      <c r="A437" s="23"/>
       <c r="B437" s="9"/>
       <c r="C437" s="9"/>
       <c r="D437" s="9"/>
       <c r="E437" s="11"/>
     </row>
     <row r="438" spans="1:5">
-      <c r="A438" s="19"/>
+      <c r="A438" s="23"/>
       <c r="B438" s="9"/>
       <c r="C438" s="9"/>
       <c r="D438" s="9"/>
       <c r="E438" s="11"/>
     </row>
     <row r="439" spans="1:5">
-      <c r="A439" s="19"/>
+      <c r="A439" s="23"/>
       <c r="B439" s="9"/>
       <c r="C439" s="9"/>
       <c r="D439" s="9"/>
       <c r="E439" s="11"/>
     </row>
     <row r="440" spans="1:5">
-      <c r="A440" s="19"/>
+      <c r="A440" s="23"/>
       <c r="B440" s="9"/>
       <c r="C440" s="9"/>
       <c r="D440" s="9"/>
       <c r="E440" s="11"/>
     </row>
     <row r="441" spans="1:5">
-      <c r="A441" s="19"/>
+      <c r="A441" s="23"/>
       <c r="B441" s="9"/>
       <c r="C441" s="9"/>
       <c r="D441" s="9"/>
       <c r="E441" s="11"/>
     </row>
     <row r="442" spans="1:5">
-      <c r="A442" s="19"/>
+      <c r="A442" s="23"/>
       <c r="B442" s="9"/>
       <c r="C442" s="9"/>
       <c r="D442" s="9"/>
       <c r="E442" s="11"/>
     </row>
     <row r="443" spans="1:5">
-      <c r="A443" s="19"/>
+      <c r="A443" s="23"/>
       <c r="B443" s="9"/>
       <c r="C443" s="9"/>
       <c r="D443" s="9"/>
       <c r="E443" s="11"/>
     </row>
     <row r="444" spans="1:5">
-      <c r="A444" s="19"/>
+      <c r="A444" s="23"/>
       <c r="B444" s="9"/>
       <c r="C444" s="9"/>
       <c r="D444" s="9"/>
       <c r="E444" s="11"/>
     </row>
     <row r="445" spans="1:5">
-      <c r="A445" s="19"/>
+      <c r="A445" s="23"/>
       <c r="B445" s="9"/>
       <c r="C445" s="9"/>
       <c r="D445" s="9"/>
       <c r="E445" s="11"/>
     </row>
     <row r="446" spans="1:5">
-      <c r="A446" s="19"/>
+      <c r="A446" s="23"/>
       <c r="B446" s="9"/>
       <c r="C446" s="9"/>
       <c r="D446" s="9"/>
       <c r="E446" s="11"/>
     </row>
     <row r="447" spans="1:5">
-      <c r="A447" s="19"/>
+      <c r="A447" s="23"/>
       <c r="B447" s="9"/>
       <c r="C447" s="9"/>
       <c r="D447" s="9"/>
       <c r="E447" s="11"/>
     </row>
     <row r="448" spans="1:5">
-      <c r="A448" s="19"/>
+      <c r="A448" s="23"/>
       <c r="B448" s="9"/>
       <c r="C448" s="9"/>
       <c r="D448" s="9"/>
       <c r="E448" s="11"/>
     </row>
     <row r="449" spans="1:5">
-      <c r="A449" s="19"/>
+      <c r="A449" s="23"/>
       <c r="B449" s="9"/>
       <c r="C449" s="9"/>
       <c r="D449" s="9"/>
       <c r="E449" s="11"/>
     </row>
     <row r="450" spans="1:5">
-      <c r="A450" s="19"/>
+      <c r="A450" s="23"/>
       <c r="B450" s="9"/>
       <c r="C450" s="9"/>
       <c r="D450" s="9"/>
       <c r="E450" s="11"/>
     </row>
     <row r="451" spans="1:5">
-      <c r="A451" s="19"/>
+      <c r="A451" s="23"/>
       <c r="B451" s="9"/>
       <c r="C451" s="9"/>
       <c r="D451" s="9"/>
       <c r="E451" s="11"/>
     </row>
     <row r="452" spans="1:5">
-      <c r="A452" s="19"/>
+      <c r="A452" s="23"/>
       <c r="B452" s="9"/>
       <c r="C452" s="9"/>
       <c r="D452" s="9"/>
       <c r="E452" s="11"/>
     </row>
     <row r="453" spans="1:5">
-      <c r="A453" s="19"/>
+      <c r="A453" s="23"/>
       <c r="B453" s="9"/>
       <c r="C453" s="9"/>
       <c r="D453" s="9"/>
       <c r="E453" s="11"/>
     </row>
     <row r="454" spans="1:5">
-      <c r="A454" s="19"/>
+      <c r="A454" s="23"/>
       <c r="B454" s="9"/>
       <c r="C454" s="9"/>
       <c r="D454" s="9"/>
       <c r="E454" s="11"/>
     </row>
     <row r="455" spans="1:5">
-      <c r="A455" s="19"/>
+      <c r="A455" s="23"/>
       <c r="B455" s="9"/>
       <c r="C455" s="9"/>
       <c r="D455" s="9"/>
       <c r="E455" s="11"/>
     </row>
     <row r="456" spans="1:5">
-      <c r="A456" s="19"/>
+      <c r="A456" s="23"/>
       <c r="B456" s="9"/>
       <c r="C456" s="9"/>
       <c r="D456" s="9"/>
       <c r="E456" s="11"/>
     </row>
     <row r="457" spans="1:5">
-      <c r="A457" s="19"/>
+      <c r="A457" s="23"/>
       <c r="B457" s="9"/>
       <c r="C457" s="9"/>
       <c r="D457" s="9"/>
       <c r="E457" s="11"/>
     </row>
     <row r="458" spans="1:5">
-      <c r="A458" s="19"/>
+      <c r="A458" s="23"/>
       <c r="B458" s="9"/>
       <c r="C458" s="9"/>
       <c r="D458" s="9"/>
       <c r="E458" s="11"/>
     </row>
     <row r="459" spans="1:5">
-      <c r="A459" s="19"/>
+      <c r="A459" s="23"/>
       <c r="B459" s="9"/>
       <c r="C459" s="9"/>
       <c r="D459" s="9"/>
       <c r="E459" s="11"/>
     </row>
     <row r="460" spans="1:5">
-      <c r="A460" s="19"/>
+      <c r="A460" s="23"/>
       <c r="B460" s="9"/>
       <c r="C460" s="9"/>
       <c r="D460" s="9"/>
       <c r="E460" s="11"/>
     </row>
     <row r="461" spans="1:5">
-      <c r="A461" s="19"/>
+      <c r="A461" s="23"/>
       <c r="B461" s="9"/>
       <c r="C461" s="9"/>
       <c r="D461" s="9"/>
       <c r="E461" s="11"/>
     </row>
     <row r="462" spans="1:5">
-      <c r="A462" s="19"/>
+      <c r="A462" s="23"/>
       <c r="B462" s="9"/>
       <c r="C462" s="9"/>
       <c r="D462" s="9"/>
       <c r="E462" s="11"/>
     </row>
     <row r="463" spans="1:5">
-      <c r="A463" s="19"/>
+      <c r="A463" s="23"/>
       <c r="B463" s="9"/>
       <c r="C463" s="9"/>
       <c r="D463" s="9"/>
       <c r="E463" s="11"/>
     </row>
     <row r="464" spans="1:5">
-      <c r="A464" s="19"/>
+      <c r="A464" s="23"/>
       <c r="B464" s="9"/>
       <c r="C464" s="9"/>
       <c r="D464" s="9"/>
       <c r="E464" s="11"/>
     </row>
     <row r="465" spans="1:5">
-      <c r="A465" s="19"/>
+      <c r="A465" s="23"/>
       <c r="B465" s="9"/>
       <c r="C465" s="9"/>
       <c r="D465" s="9"/>
       <c r="E465" s="11"/>
     </row>
     <row r="466" spans="1:5">
-      <c r="A466" s="19"/>
+      <c r="A466" s="23"/>
       <c r="B466" s="9"/>
       <c r="C466" s="9"/>
       <c r="D466" s="9"/>
       <c r="E466" s="11"/>
     </row>
     <row r="467" spans="1:5">
-      <c r="A467" s="19"/>
+      <c r="A467" s="23"/>
       <c r="B467" s="9"/>
       <c r="C467" s="9"/>
       <c r="D467" s="9"/>
       <c r="E467" s="11"/>
     </row>
     <row r="468" spans="1:5">
-      <c r="A468" s="19"/>
+      <c r="A468" s="23"/>
       <c r="B468" s="9"/>
       <c r="C468" s="9"/>
       <c r="D468" s="9"/>
       <c r="E468" s="11"/>
     </row>
     <row r="469" spans="1:5">
-      <c r="A469" s="19"/>
+      <c r="A469" s="23"/>
       <c r="B469" s="9"/>
       <c r="C469" s="9"/>
       <c r="D469" s="9"/>
       <c r="E469" s="11"/>
     </row>
     <row r="470" spans="1:5">
-      <c r="A470" s="19"/>
+      <c r="A470" s="23"/>
       <c r="B470" s="9"/>
       <c r="C470" s="9"/>
       <c r="D470" s="9"/>
       <c r="E470" s="11"/>
     </row>
     <row r="471" spans="1:5">
-      <c r="A471" s="19"/>
+      <c r="A471" s="23"/>
       <c r="B471" s="9"/>
       <c r="C471" s="9"/>
       <c r="D471" s="9"/>
       <c r="E471" s="11"/>
     </row>
     <row r="472" spans="1:5">
-      <c r="A472" s="19"/>
+      <c r="A472" s="23"/>
       <c r="B472" s="9"/>
       <c r="C472" s="9"/>
       <c r="D472" s="9"/>
       <c r="E472" s="11"/>
     </row>
     <row r="473" spans="1:5">
-      <c r="A473" s="19"/>
+      <c r="A473" s="23"/>
       <c r="B473" s="9"/>
       <c r="C473" s="9"/>
       <c r="D473" s="9"/>
       <c r="E473" s="11"/>
     </row>
     <row r="474" spans="1:5">
-      <c r="A474" s="19"/>
+      <c r="A474" s="23"/>
       <c r="B474" s="9"/>
       <c r="C474" s="9"/>
       <c r="D474" s="9"/>
       <c r="E474" s="11"/>
     </row>
     <row r="475" spans="1:5">
-      <c r="A475" s="19"/>
+      <c r="A475" s="23"/>
       <c r="B475" s="9"/>
       <c r="C475" s="9"/>
       <c r="D475" s="9"/>
       <c r="E475" s="11"/>
     </row>
     <row r="476" spans="1:5">
-      <c r="A476" s="19"/>
+      <c r="A476" s="23"/>
       <c r="B476" s="9"/>
       <c r="C476" s="9"/>
       <c r="D476" s="9"/>
       <c r="E476" s="11"/>
     </row>
     <row r="477" spans="1:5">
-      <c r="A477" s="19"/>
+      <c r="A477" s="23"/>
       <c r="B477" s="9"/>
       <c r="C477" s="9"/>
       <c r="D477" s="9"/>
       <c r="E477" s="11"/>
     </row>
     <row r="478" spans="1:5">
-      <c r="A478" s="19"/>
+      <c r="A478" s="23"/>
       <c r="B478" s="9"/>
       <c r="C478" s="9"/>
       <c r="D478" s="9"/>
       <c r="E478" s="11"/>
     </row>
     <row r="479" spans="1:5">
-      <c r="A479" s="19"/>
+      <c r="A479" s="23"/>
       <c r="B479" s="9"/>
       <c r="C479" s="9"/>
       <c r="D479" s="9"/>
       <c r="E479" s="11"/>
     </row>
     <row r="480" spans="1:5">
-      <c r="A480" s="19"/>
+      <c r="A480" s="23"/>
       <c r="B480" s="9"/>
       <c r="C480" s="9"/>
       <c r="D480" s="9"/>
       <c r="E480" s="11"/>
     </row>
     <row r="481" spans="1:5">
-      <c r="A481" s="19"/>
+      <c r="A481" s="23"/>
       <c r="B481" s="9"/>
       <c r="C481" s="9"/>
       <c r="D481" s="9"/>
       <c r="E481" s="11"/>
     </row>
     <row r="482" spans="1:5">
-      <c r="A482" s="19"/>
+      <c r="A482" s="23"/>
       <c r="B482" s="9"/>
       <c r="C482" s="9"/>
       <c r="D482" s="9"/>
       <c r="E482" s="11"/>
     </row>
     <row r="483" spans="1:5">
-      <c r="A483" s="19"/>
+      <c r="A483" s="23"/>
       <c r="B483" s="9"/>
       <c r="C483" s="9"/>
       <c r="D483" s="9"/>
       <c r="E483" s="11"/>
     </row>
     <row r="484" spans="1:5">
-      <c r="A484" s="19"/>
+      <c r="A484" s="23"/>
       <c r="B484" s="9"/>
       <c r="C484" s="9"/>
       <c r="D484" s="9"/>
       <c r="E484" s="11"/>
     </row>
     <row r="485" spans="1:5">
-      <c r="A485" s="19"/>
+      <c r="A485" s="23"/>
       <c r="B485" s="9"/>
       <c r="C485" s="9"/>
       <c r="D485" s="9"/>
       <c r="E485" s="11"/>
     </row>
     <row r="486" spans="1:5">
-      <c r="A486" s="19"/>
+      <c r="A486" s="23"/>
       <c r="B486" s="9"/>
       <c r="C486" s="9"/>
       <c r="D486" s="9"/>
       <c r="E486" s="11"/>
     </row>
     <row r="487" spans="1:5">
-      <c r="A487" s="19"/>
+      <c r="A487" s="23"/>
       <c r="B487" s="9"/>
       <c r="C487" s="9"/>
       <c r="D487" s="9"/>
       <c r="E487" s="11"/>
     </row>
     <row r="488" spans="1:5">
-      <c r="A488" s="19"/>
+      <c r="A488" s="23"/>
       <c r="B488" s="9"/>
       <c r="C488" s="9"/>
       <c r="D488" s="9"/>
       <c r="E488" s="11"/>
     </row>
     <row r="489" spans="1:5">
-      <c r="A489" s="19"/>
+      <c r="A489" s="23"/>
       <c r="B489" s="9"/>
       <c r="C489" s="9"/>
       <c r="D489" s="9"/>
       <c r="E489" s="11"/>
     </row>
     <row r="490" spans="1:5">
-      <c r="A490" s="19"/>
+      <c r="A490" s="23"/>
       <c r="B490" s="9"/>
       <c r="C490" s="9"/>
       <c r="D490" s="9"/>
       <c r="E490" s="11"/>
     </row>
     <row r="491" spans="1:5">
-      <c r="A491" s="19"/>
+      <c r="A491" s="23"/>
       <c r="B491" s="9"/>
       <c r="C491" s="9"/>
       <c r="D491" s="9"/>
       <c r="E491" s="11"/>
     </row>
     <row r="492" spans="1:5">
-      <c r="A492" s="19"/>
+      <c r="A492" s="23"/>
       <c r="B492" s="9"/>
       <c r="C492" s="9"/>
       <c r="D492" s="9"/>
       <c r="E492" s="11"/>
     </row>
     <row r="493" spans="1:5">
-      <c r="A493" s="19"/>
+      <c r="A493" s="23"/>
       <c r="B493" s="9"/>
       <c r="C493" s="9"/>
       <c r="D493" s="9"/>
       <c r="E493" s="11"/>
     </row>
     <row r="494" spans="1:5">
-      <c r="A494" s="19"/>
+      <c r="A494" s="23"/>
       <c r="B494" s="9"/>
       <c r="C494" s="9"/>
       <c r="D494" s="9"/>
       <c r="E494" s="11"/>
     </row>
     <row r="495" spans="1:5">
-      <c r="A495" s="19"/>
+      <c r="A495" s="23"/>
       <c r="B495" s="9"/>
       <c r="C495" s="9"/>
       <c r="D495" s="9"/>
       <c r="E495" s="11"/>
     </row>
     <row r="496" spans="1:5">
-      <c r="A496" s="19"/>
+      <c r="A496" s="23"/>
       <c r="B496" s="9"/>
       <c r="C496" s="9"/>
       <c r="D496" s="9"/>
       <c r="E496" s="11"/>
     </row>
     <row r="497" spans="1:5">
-      <c r="A497" s="19"/>
+      <c r="A497" s="23"/>
       <c r="B497" s="9"/>
       <c r="C497" s="9"/>
       <c r="D497" s="9"/>
       <c r="E497" s="11"/>
     </row>
     <row r="498" spans="1:5">
-      <c r="A498" s="19"/>
+      <c r="A498" s="23"/>
       <c r="B498" s="9"/>
       <c r="C498" s="9"/>
       <c r="D498" s="9"/>
       <c r="E498" s="11"/>
     </row>
     <row r="499" spans="1:5">
-      <c r="A499" s="19"/>
+      <c r="A499" s="23"/>
       <c r="B499" s="9"/>
       <c r="C499" s="9"/>
       <c r="D499" s="9"/>
       <c r="E499" s="11"/>
     </row>
     <row r="500" spans="1:5">
-      <c r="A500" s="19"/>
+      <c r="A500" s="23"/>
       <c r="B500" s="9"/>
       <c r="C500" s="9"/>
       <c r="D500" s="9"/>
       <c r="E500" s="11"/>
     </row>
     <row r="501" spans="1:5">
-      <c r="A501" s="19"/>
+      <c r="A501" s="23"/>
       <c r="B501" s="9"/>
       <c r="C501" s="9"/>
       <c r="D501" s="9"/>
       <c r="E501" s="11"/>
     </row>
     <row r="502" spans="1:5">
-      <c r="A502" s="20"/>
+      <c r="A502" s="24"/>
       <c r="B502" s="9"/>
       <c r="C502" s="9"/>
       <c r="D502" s="9"/>
       <c r="E502" s="11"/>
     </row>
     <row r="503" spans="1:5">
-      <c r="A503" s="16"/>
+      <c r="A503" s="20"/>
       <c r="B503" s="9"/>
       <c r="C503" s="9"/>
       <c r="D503" s="9"/>
       <c r="E503" s="11"/>
     </row>
     <row r="504" spans="1:5">
-      <c r="A504" s="19"/>
+      <c r="A504" s="23"/>
       <c r="B504" s="9"/>
       <c r="C504" s="9"/>
       <c r="D504" s="9"/>
       <c r="E504" s="11"/>
     </row>
     <row r="505" spans="1:5">
-      <c r="A505" s="19"/>
+      <c r="A505" s="23"/>
       <c r="B505" s="9"/>
       <c r="C505" s="9"/>
       <c r="D505" s="9"/>
       <c r="E505" s="11"/>
     </row>
     <row r="506" spans="1:5">
-      <c r="A506" s="19"/>
+      <c r="A506" s="23"/>
       <c r="B506" s="9"/>
       <c r="C506" s="9"/>
       <c r="D506" s="9"/>
       <c r="E506" s="11"/>
     </row>
     <row r="507" spans="1:5">
-      <c r="A507" s="19"/>
+      <c r="A507" s="23"/>
       <c r="B507" s="9"/>
       <c r="C507" s="9"/>
       <c r="D507" s="9"/>
       <c r="E507" s="11"/>
     </row>
     <row r="508" spans="1:5">
-      <c r="A508" s="19"/>
+      <c r="A508" s="23"/>
       <c r="B508" s="9"/>
       <c r="C508" s="9"/>
       <c r="D508" s="9"/>
       <c r="E508" s="11"/>
     </row>
     <row r="509" spans="1:5">
-      <c r="A509" s="19"/>
+      <c r="A509" s="23"/>
       <c r="B509" s="9"/>
       <c r="C509" s="9"/>
       <c r="D509" s="9"/>
       <c r="E509" s="11"/>
     </row>
     <row r="510" spans="1:5">
-      <c r="A510" s="19"/>
+      <c r="A510" s="23"/>
       <c r="B510" s="9"/>
       <c r="C510" s="9"/>
       <c r="D510" s="9"/>
       <c r="E510" s="11"/>
     </row>
     <row r="511" spans="1:5">
-      <c r="A511" s="19"/>
+      <c r="A511" s="23"/>
       <c r="B511" s="9"/>
       <c r="C511" s="9"/>
       <c r="D511" s="9"/>
       <c r="E511" s="11"/>
     </row>
     <row r="512" spans="1:5">
-      <c r="A512" s="19"/>
+      <c r="A512" s="23"/>
       <c r="B512" s="9"/>
       <c r="C512" s="9"/>
       <c r="D512" s="9"/>
       <c r="E512" s="11"/>
     </row>
     <row r="513" spans="1:5">
-      <c r="A513" s="19"/>
+      <c r="A513" s="23"/>
       <c r="B513" s="9"/>
       <c r="C513" s="9"/>
       <c r="D513" s="9"/>
       <c r="E513" s="11"/>
     </row>
     <row r="514" spans="1:5">
-      <c r="A514" s="19"/>
+      <c r="A514" s="23"/>
       <c r="B514" s="9"/>
       <c r="C514" s="9"/>
       <c r="D514" s="9"/>
       <c r="E514" s="11"/>
     </row>
     <row r="515" spans="1:5">
-      <c r="A515" s="19"/>
+      <c r="A515" s="23"/>
       <c r="B515" s="9"/>
       <c r="C515" s="9"/>
       <c r="D515" s="9"/>
       <c r="E515" s="11"/>
     </row>
     <row r="516" spans="1:5">
-      <c r="A516" s="19"/>
+      <c r="A516" s="23"/>
       <c r="B516" s="9"/>
       <c r="C516" s="9"/>
       <c r="D516" s="9"/>
       <c r="E516" s="11"/>
     </row>
     <row r="517" spans="1:5">
-      <c r="A517" s="19"/>
+      <c r="A517" s="23"/>
       <c r="B517" s="9"/>
       <c r="C517" s="9"/>
       <c r="D517" s="9"/>
       <c r="E517" s="11"/>
     </row>
     <row r="518" spans="1:5">
-      <c r="A518" s="19"/>
+      <c r="A518" s="23"/>
       <c r="B518" s="9"/>
       <c r="C518" s="9"/>
       <c r="D518" s="9"/>
       <c r="E518" s="11"/>
     </row>
     <row r="519" spans="1:5">
-      <c r="A519" s="19"/>
+      <c r="A519" s="23"/>
       <c r="B519" s="9"/>
       <c r="C519" s="9"/>
       <c r="D519" s="9"/>
       <c r="E519" s="11"/>
     </row>
     <row r="520" spans="1:5">
-      <c r="A520" s="19"/>
+      <c r="A520" s="23"/>
       <c r="B520" s="9"/>
       <c r="C520" s="9"/>
       <c r="D520" s="9"/>
       <c r="E520" s="11"/>
     </row>
     <row r="521" spans="1:5">
-      <c r="A521" s="19"/>
+      <c r="A521" s="23"/>
       <c r="B521" s="9"/>
       <c r="C521" s="9"/>
       <c r="D521" s="9"/>
       <c r="E521" s="11"/>
     </row>
     <row r="522" spans="1:5">
-      <c r="A522" s="19"/>
+      <c r="A522" s="23"/>
       <c r="B522" s="9"/>
       <c r="C522" s="9"/>
       <c r="D522" s="9"/>
       <c r="E522" s="11"/>
     </row>
     <row r="523" spans="1:5">
-      <c r="A523" s="19"/>
+      <c r="A523" s="23"/>
       <c r="B523" s="9"/>
       <c r="C523" s="9"/>
       <c r="D523" s="9"/>
       <c r="E523" s="11"/>
     </row>
     <row r="524" spans="1:5">
-      <c r="A524" s="19"/>
+      <c r="A524" s="23"/>
       <c r="B524" s="9"/>
       <c r="C524" s="9"/>
       <c r="D524" s="9"/>
       <c r="E524" s="11"/>
     </row>
     <row r="525" spans="1:5">
-      <c r="A525" s="19"/>
+      <c r="A525" s="23"/>
       <c r="B525" s="9"/>
       <c r="C525" s="9"/>
       <c r="D525" s="9"/>
       <c r="E525" s="11"/>
     </row>
     <row r="526" spans="1:5">
-      <c r="A526" s="19"/>
+      <c r="A526" s="23"/>
       <c r="B526" s="9"/>
       <c r="C526" s="9"/>
       <c r="D526" s="9"/>
       <c r="E526" s="11"/>
     </row>
     <row r="527" spans="1:5">
-      <c r="A527" s="19"/>
+      <c r="A527" s="23"/>
       <c r="B527" s="9"/>
       <c r="C527" s="9"/>
       <c r="D527" s="9"/>
       <c r="E527" s="11"/>
     </row>
     <row r="528" spans="1:5">
-      <c r="A528" s="19"/>
+      <c r="A528" s="23"/>
       <c r="B528" s="9"/>
       <c r="C528" s="9"/>
       <c r="D528" s="9"/>
       <c r="E528" s="11"/>
     </row>
     <row r="529" spans="1:5">
-      <c r="A529" s="19"/>
+      <c r="A529" s="23"/>
       <c r="B529" s="9"/>
       <c r="C529" s="9"/>
       <c r="D529" s="9"/>
       <c r="E529" s="11"/>
     </row>
     <row r="530" spans="1:5">
-      <c r="A530" s="19"/>
+      <c r="A530" s="23"/>
       <c r="B530" s="9"/>
       <c r="C530" s="9"/>
       <c r="D530" s="9"/>
       <c r="E530" s="11"/>
     </row>
     <row r="531" spans="1:5">
-      <c r="A531" s="19"/>
+      <c r="A531" s="23"/>
       <c r="B531" s="9"/>
       <c r="C531" s="9"/>
       <c r="D531" s="9"/>
       <c r="E531" s="11"/>
     </row>
     <row r="532" spans="1:5">
-      <c r="A532" s="19"/>
+      <c r="A532" s="23"/>
       <c r="B532" s="9"/>
       <c r="C532" s="9"/>
       <c r="D532" s="9"/>
       <c r="E532" s="11"/>
     </row>
     <row r="533" spans="1:5">
-      <c r="A533" s="19"/>
+      <c r="A533" s="23"/>
       <c r="B533" s="9"/>
       <c r="C533" s="9"/>
       <c r="D533" s="9"/>
       <c r="E533" s="11"/>
     </row>
     <row r="534" spans="1:5">
-      <c r="A534" s="19"/>
+      <c r="A534" s="23"/>
       <c r="B534" s="9"/>
       <c r="C534" s="9"/>
       <c r="D534" s="9"/>
       <c r="E534" s="11"/>
     </row>
     <row r="535" spans="1:5">
-      <c r="A535" s="19"/>
+      <c r="A535" s="23"/>
       <c r="B535" s="9"/>
       <c r="C535" s="9"/>
       <c r="D535" s="9"/>
       <c r="E535" s="11"/>
     </row>
     <row r="536" spans="1:5">
-      <c r="A536" s="19"/>
+      <c r="A536" s="23"/>
       <c r="B536" s="9"/>
       <c r="C536" s="9"/>
       <c r="D536" s="9"/>
       <c r="E536" s="11"/>
     </row>
     <row r="537" spans="1:5">
-      <c r="A537" s="19"/>
+      <c r="A537" s="23"/>
       <c r="B537" s="9"/>
       <c r="C537" s="9"/>
       <c r="D537" s="9"/>
       <c r="E537" s="11"/>
     </row>
     <row r="538" spans="1:5">
-      <c r="A538" s="19"/>
+      <c r="A538" s="23"/>
       <c r="B538" s="9"/>
       <c r="C538" s="9"/>
       <c r="D538" s="9"/>
       <c r="E538" s="11"/>
     </row>
     <row r="539" spans="1:5">
-      <c r="A539" s="19"/>
+      <c r="A539" s="23"/>
       <c r="B539" s="9"/>
       <c r="C539" s="9"/>
       <c r="D539" s="9"/>
       <c r="E539" s="11"/>
     </row>
     <row r="540" spans="1:5">
-      <c r="A540" s="19"/>
+      <c r="A540" s="23"/>
       <c r="B540" s="9"/>
       <c r="C540" s="9"/>
       <c r="D540" s="9"/>
       <c r="E540" s="11"/>
     </row>
     <row r="541" spans="1:5">
-      <c r="A541" s="19"/>
+      <c r="A541" s="23"/>
       <c r="B541" s="9"/>
       <c r="C541" s="9"/>
       <c r="D541" s="9"/>
       <c r="E541" s="11"/>
     </row>
     <row r="542" spans="1:5">
-      <c r="A542" s="19"/>
+      <c r="A542" s="23"/>
       <c r="B542" s="9"/>
       <c r="C542" s="9"/>
       <c r="D542" s="9"/>
       <c r="E542" s="11"/>
     </row>
     <row r="543" spans="1:5">
-      <c r="A543" s="19"/>
+      <c r="A543" s="23"/>
       <c r="B543" s="9"/>
       <c r="C543" s="9"/>
       <c r="D543" s="9"/>
       <c r="E543" s="11"/>
     </row>
     <row r="544" spans="1:5">
-      <c r="A544" s="19"/>
+      <c r="A544" s="23"/>
       <c r="B544" s="9"/>
       <c r="C544" s="9"/>
       <c r="D544" s="9"/>
       <c r="E544" s="11"/>
     </row>
     <row r="545" spans="1:5">
-      <c r="A545" s="19"/>
+      <c r="A545" s="23"/>
       <c r="B545" s="9"/>
       <c r="C545" s="9"/>
       <c r="D545" s="9"/>
       <c r="E545" s="11"/>
     </row>
     <row r="546" spans="1:5">
-      <c r="A546" s="19"/>
+      <c r="A546" s="23"/>
       <c r="B546" s="9"/>
       <c r="C546" s="9"/>
       <c r="D546" s="9"/>
       <c r="E546" s="11"/>
     </row>
     <row r="547" spans="1:5">
-      <c r="A547" s="19"/>
+      <c r="A547" s="23"/>
       <c r="B547" s="9"/>
       <c r="C547" s="9"/>
       <c r="D547" s="9"/>
       <c r="E547" s="11"/>
     </row>
     <row r="548" spans="1:5">
-      <c r="A548" s="19"/>
+      <c r="A548" s="23"/>
       <c r="B548" s="9"/>
       <c r="C548" s="9"/>
       <c r="D548" s="9"/>
       <c r="E548" s="11"/>
     </row>
     <row r="549" spans="1:5">
-      <c r="A549" s="19"/>
+      <c r="A549" s="23"/>
       <c r="B549" s="9"/>
       <c r="C549" s="9"/>
       <c r="D549" s="9"/>
       <c r="E549" s="11"/>
     </row>
     <row r="550" spans="1:5">
-      <c r="A550" s="19"/>
+      <c r="A550" s="23"/>
       <c r="B550" s="9"/>
       <c r="C550" s="9"/>
       <c r="D550" s="9"/>
       <c r="E550" s="11"/>
     </row>
     <row r="551" spans="1:5">
-      <c r="A551" s="19"/>
+      <c r="A551" s="23"/>
       <c r="B551" s="9"/>
       <c r="C551" s="9"/>
       <c r="D551" s="9"/>
       <c r="E551" s="11"/>
     </row>
     <row r="552" spans="1:5">
-      <c r="A552" s="19"/>
+      <c r="A552" s="23"/>
       <c r="B552" s="9"/>
       <c r="C552" s="9"/>
       <c r="D552" s="9"/>
       <c r="E552" s="11"/>
     </row>
     <row r="553" spans="1:5">
-      <c r="A553" s="19"/>
+      <c r="A553" s="23"/>
       <c r="B553" s="9"/>
       <c r="C553" s="9"/>
       <c r="D553" s="9"/>
       <c r="E553" s="11"/>
     </row>
     <row r="554" spans="1:5">
-      <c r="A554" s="19"/>
+      <c r="A554" s="23"/>
       <c r="B554" s="9"/>
       <c r="C554" s="9"/>
       <c r="D554" s="9"/>
       <c r="E554" s="11"/>
     </row>
     <row r="555" spans="1:5">
-      <c r="A555" s="19"/>
+      <c r="A555" s="23"/>
       <c r="B555" s="9"/>
       <c r="C555" s="9"/>
       <c r="D555" s="9"/>
       <c r="E555" s="11"/>
     </row>
     <row r="556" spans="1:5">
-      <c r="A556" s="19"/>
+      <c r="A556" s="23"/>
       <c r="B556" s="9"/>
       <c r="C556" s="9"/>
       <c r="D556" s="9"/>
       <c r="E556" s="11"/>
     </row>
     <row r="557" spans="1:5">
-      <c r="A557" s="19"/>
+      <c r="A557" s="23"/>
       <c r="B557" s="9"/>
       <c r="C557" s="9"/>
       <c r="D557" s="9"/>
       <c r="E557" s="11"/>
     </row>
     <row r="558" spans="1:5">
-      <c r="A558" s="19"/>
+      <c r="A558" s="23"/>
       <c r="B558" s="9"/>
       <c r="C558" s="9"/>
       <c r="D558" s="9"/>
       <c r="E558" s="11"/>
     </row>
     <row r="559" spans="1:5">
-      <c r="A559" s="19"/>
+      <c r="A559" s="23"/>
       <c r="B559" s="9"/>
       <c r="C559" s="9"/>
       <c r="D559" s="9"/>
       <c r="E559" s="11"/>
     </row>
     <row r="560" spans="1:5">
-      <c r="A560" s="19"/>
+      <c r="A560" s="23"/>
       <c r="B560" s="9"/>
       <c r="C560" s="9"/>
       <c r="D560" s="9"/>
       <c r="E560" s="11"/>
     </row>
     <row r="561" spans="1:5">
-      <c r="A561" s="19"/>
+      <c r="A561" s="23"/>
       <c r="B561" s="9"/>
       <c r="C561" s="9"/>
       <c r="D561" s="9"/>
       <c r="E561" s="11"/>
     </row>
     <row r="562" spans="1:5">
-      <c r="A562" s="19"/>
+      <c r="A562" s="23"/>
       <c r="B562" s="9"/>
       <c r="C562" s="9"/>
       <c r="D562" s="9"/>
       <c r="E562" s="11"/>
     </row>
     <row r="563" spans="1:5">
-      <c r="A563" s="19"/>
+      <c r="A563" s="23"/>
       <c r="B563" s="9"/>
       <c r="C563" s="9"/>
       <c r="D563" s="9"/>
       <c r="E563" s="11"/>
     </row>
     <row r="564" spans="1:5">
-      <c r="A564" s="19"/>
+      <c r="A564" s="23"/>
       <c r="B564" s="9"/>
       <c r="C564" s="9"/>
       <c r="D564" s="9"/>
       <c r="E564" s="11"/>
     </row>
     <row r="565" spans="1:5">
-      <c r="A565" s="19"/>
+      <c r="A565" s="23"/>
       <c r="B565" s="9"/>
       <c r="C565" s="9"/>
       <c r="D565" s="9"/>
       <c r="E565" s="11"/>
     </row>
     <row r="566" spans="1:5">
-      <c r="A566" s="19"/>
+      <c r="A566" s="23"/>
       <c r="B566" s="9"/>
       <c r="C566" s="9"/>
       <c r="D566" s="9"/>
       <c r="E566" s="11"/>
     </row>
     <row r="567" spans="1:5">
-      <c r="A567" s="19"/>
+      <c r="A567" s="23"/>
       <c r="B567" s="9"/>
       <c r="C567" s="9"/>
       <c r="D567" s="9"/>
       <c r="E567" s="11"/>
     </row>
     <row r="568" spans="1:5">
-      <c r="A568" s="19"/>
+      <c r="A568" s="23"/>
       <c r="B568" s="9"/>
       <c r="C568" s="9"/>
       <c r="D568" s="9"/>
       <c r="E568" s="11"/>
     </row>
     <row r="569" spans="1:5">
-      <c r="A569" s="19"/>
+      <c r="A569" s="23"/>
       <c r="B569" s="9"/>
       <c r="C569" s="9"/>
       <c r="D569" s="9"/>
       <c r="E569" s="11"/>
     </row>
     <row r="570" spans="1:5">
-      <c r="A570" s="19"/>
+      <c r="A570" s="23"/>
       <c r="B570" s="9"/>
       <c r="C570" s="9"/>
       <c r="D570" s="9"/>
       <c r="E570" s="11"/>
     </row>
     <row r="571" spans="1:5">
-      <c r="A571" s="19"/>
+      <c r="A571" s="23"/>
       <c r="B571" s="9"/>
       <c r="C571" s="9"/>
       <c r="D571" s="9"/>
       <c r="E571" s="11"/>
     </row>
     <row r="572" spans="1:5">
-      <c r="A572" s="19"/>
+      <c r="A572" s="23"/>
       <c r="B572" s="9"/>
       <c r="C572" s="9"/>
       <c r="D572" s="9"/>
       <c r="E572" s="11"/>
     </row>
     <row r="573" spans="1:5">
-      <c r="A573" s="19"/>
+      <c r="A573" s="23"/>
       <c r="B573" s="9"/>
       <c r="C573" s="9"/>
       <c r="D573" s="9"/>
       <c r="E573" s="11"/>
     </row>
     <row r="574" spans="1:5">
-      <c r="A574" s="19"/>
+      <c r="A574" s="23"/>
       <c r="B574" s="9"/>
       <c r="C574" s="9"/>
       <c r="D574" s="9"/>
       <c r="E574" s="11"/>
     </row>
     <row r="575" spans="1:5">
-      <c r="A575" s="19"/>
+      <c r="A575" s="23"/>
       <c r="B575" s="9"/>
       <c r="C575" s="9"/>
       <c r="D575" s="9"/>
       <c r="E575" s="11"/>
     </row>
     <row r="576" spans="1:5">
-      <c r="A576" s="19"/>
+      <c r="A576" s="23"/>
       <c r="B576" s="9"/>
       <c r="C576" s="9"/>
       <c r="D576" s="9"/>
       <c r="E576" s="11"/>
     </row>
     <row r="577" spans="1:5">
-      <c r="A577" s="19"/>
+      <c r="A577" s="23"/>
       <c r="B577" s="9"/>
       <c r="C577" s="9"/>
       <c r="D577" s="9"/>
       <c r="E577" s="11"/>
     </row>
     <row r="578" spans="1:5">
-      <c r="A578" s="19"/>
+      <c r="A578" s="23"/>
       <c r="B578" s="9"/>
       <c r="C578" s="9"/>
       <c r="D578" s="9"/>
       <c r="E578" s="11"/>
     </row>
     <row r="579" spans="1:5">
-      <c r="A579" s="19"/>
+      <c r="A579" s="23"/>
       <c r="B579" s="9"/>
       <c r="C579" s="9"/>
       <c r="D579" s="9"/>
       <c r="E579" s="11"/>
     </row>
     <row r="580" spans="1:5">
-      <c r="A580" s="19"/>
+      <c r="A580" s="23"/>
       <c r="B580" s="9"/>
       <c r="C580" s="9"/>
       <c r="D580" s="9"/>
       <c r="E580" s="11"/>
     </row>
     <row r="581" spans="1:5">
-      <c r="A581" s="19"/>
+      <c r="A581" s="23"/>
       <c r="B581" s="9"/>
       <c r="C581" s="9"/>
       <c r="D581" s="9"/>
       <c r="E581" s="11"/>
     </row>
     <row r="582" spans="1:5">
-      <c r="A582" s="19"/>
+      <c r="A582" s="23"/>
       <c r="B582" s="9"/>
       <c r="C582" s="9"/>
       <c r="D582" s="9"/>
       <c r="E582" s="11"/>
     </row>
     <row r="583" spans="1:5">
-      <c r="A583" s="19"/>
+      <c r="A583" s="23"/>
       <c r="B583" s="9"/>
       <c r="C583" s="9"/>
       <c r="D583" s="9"/>
       <c r="E583" s="11"/>
     </row>
     <row r="584" spans="1:5">
-      <c r="A584" s="19"/>
+      <c r="A584" s="23"/>
       <c r="B584" s="9"/>
       <c r="C584" s="9"/>
       <c r="D584" s="9"/>
       <c r="E584" s="11"/>
     </row>
     <row r="585" spans="1:5">
-      <c r="A585" s="19"/>
+      <c r="A585" s="23"/>
       <c r="B585" s="9"/>
       <c r="C585" s="9"/>
       <c r="D585" s="9"/>
       <c r="E585" s="11"/>
     </row>
     <row r="586" spans="1:5">
-      <c r="A586" s="19"/>
+      <c r="A586" s="23"/>
       <c r="B586" s="9"/>
       <c r="C586" s="9"/>
       <c r="D586" s="9"/>
       <c r="E586" s="11"/>
     </row>
     <row r="587" spans="1:5">
-      <c r="A587" s="19"/>
+      <c r="A587" s="23"/>
       <c r="B587" s="9"/>
       <c r="C587" s="9"/>
       <c r="D587" s="9"/>
       <c r="E587" s="11"/>
     </row>
     <row r="588" spans="1:5">
-      <c r="A588" s="19"/>
+      <c r="A588" s="23"/>
       <c r="B588" s="9"/>
       <c r="C588" s="9"/>
       <c r="D588" s="9"/>
       <c r="E588" s="11"/>
     </row>
     <row r="589" spans="1:5">
-      <c r="A589" s="19"/>
+      <c r="A589" s="23"/>
       <c r="B589" s="9"/>
       <c r="C589" s="9"/>
       <c r="D589" s="9"/>
       <c r="E589" s="11"/>
     </row>
     <row r="590" spans="1:5">
-      <c r="A590" s="19"/>
+      <c r="A590" s="23"/>
       <c r="B590" s="9"/>
       <c r="C590" s="9"/>
       <c r="D590" s="9"/>
       <c r="E590" s="11"/>
     </row>
     <row r="591" spans="1:5">
-      <c r="A591" s="19"/>
+      <c r="A591" s="23"/>
       <c r="B591" s="9"/>
       <c r="C591" s="9"/>
       <c r="D591" s="9"/>
       <c r="E591" s="11"/>
     </row>
     <row r="592" spans="1:5">
-      <c r="A592" s="19"/>
+      <c r="A592" s="23"/>
       <c r="B592" s="9"/>
       <c r="C592" s="9"/>
       <c r="D592" s="9"/>
       <c r="E592" s="11"/>
     </row>
     <row r="593" spans="1:5">
-      <c r="A593" s="19"/>
+      <c r="A593" s="23"/>
       <c r="B593" s="9"/>
       <c r="C593" s="9"/>
       <c r="D593" s="9"/>
       <c r="E593" s="11"/>
     </row>
     <row r="594" spans="1:5">
-      <c r="A594" s="19"/>
+      <c r="A594" s="23"/>
       <c r="B594" s="9"/>
       <c r="C594" s="9"/>
       <c r="D594" s="9"/>
       <c r="E594" s="11"/>
     </row>
     <row r="595" spans="1:5">
-      <c r="A595" s="19"/>
+      <c r="A595" s="23"/>
       <c r="B595" s="9"/>
       <c r="C595" s="9"/>
       <c r="D595" s="9"/>
       <c r="E595" s="11"/>
     </row>
     <row r="596" spans="1:5">
-      <c r="A596" s="19"/>
+      <c r="A596" s="23"/>
       <c r="B596" s="9"/>
       <c r="C596" s="9"/>
       <c r="D596" s="9"/>
       <c r="E596" s="11"/>
     </row>
     <row r="597" spans="1:5">
-      <c r="A597" s="19"/>
+      <c r="A597" s="23"/>
       <c r="B597" s="9"/>
       <c r="C597" s="9"/>
       <c r="D597" s="9"/>
       <c r="E597" s="11"/>
     </row>
     <row r="598" spans="1:5">
-      <c r="A598" s="19"/>
+      <c r="A598" s="23"/>
       <c r="B598" s="9"/>
       <c r="C598" s="9"/>
       <c r="D598" s="9"/>
       <c r="E598" s="11"/>
     </row>
     <row r="599" spans="1:5">
-      <c r="A599" s="19"/>
+      <c r="A599" s="23"/>
       <c r="B599" s="9"/>
       <c r="C599" s="9"/>
       <c r="D599" s="9"/>
       <c r="E599" s="11"/>
     </row>
     <row r="600" spans="1:5">
-      <c r="A600" s="19"/>
+      <c r="A600" s="23"/>
       <c r="B600" s="9"/>
       <c r="C600" s="9"/>
       <c r="D600" s="9"/>
       <c r="E600" s="11"/>
     </row>
     <row r="601" spans="1:5">
-      <c r="A601" s="19"/>
+      <c r="A601" s="23"/>
       <c r="B601" s="9"/>
       <c r="C601" s="9"/>
       <c r="D601" s="9"/>
       <c r="E601" s="11"/>
     </row>
     <row r="602" spans="1:5">
-      <c r="A602" s="19"/>
+      <c r="A602" s="23"/>
       <c r="B602" s="9"/>
       <c r="C602" s="9"/>
       <c r="D602" s="9"/>
       <c r="E602" s="11"/>
     </row>
     <row r="603" spans="1:5">
-      <c r="A603" s="19"/>
+      <c r="A603" s="23"/>
       <c r="B603" s="9"/>
       <c r="C603" s="9"/>
       <c r="D603" s="9"/>
       <c r="E603" s="11"/>
     </row>
     <row r="604" spans="1:5">
-      <c r="A604" s="19"/>
+      <c r="A604" s="23"/>
       <c r="B604" s="9"/>
       <c r="C604" s="9"/>
       <c r="D604" s="9"/>
       <c r="E604" s="11"/>
     </row>
     <row r="605" spans="1:5">
-      <c r="A605" s="19"/>
+      <c r="A605" s="23"/>
       <c r="B605" s="9"/>
       <c r="C605" s="9"/>
       <c r="D605" s="9"/>
       <c r="E605" s="11"/>
     </row>
     <row r="606" spans="1:5">
-      <c r="A606" s="19"/>
+      <c r="A606" s="23"/>
       <c r="B606" s="9"/>
       <c r="C606" s="9"/>
       <c r="D606" s="9"/>
       <c r="E606" s="11"/>
     </row>
     <row r="607" spans="1:5">
-      <c r="A607" s="19"/>
+      <c r="A607" s="23"/>
       <c r="B607" s="9"/>
       <c r="C607" s="9"/>
       <c r="D607" s="9"/>
       <c r="E607" s="11"/>
     </row>
     <row r="608" spans="1:5">
-      <c r="A608" s="19"/>
+      <c r="A608" s="23"/>
       <c r="B608" s="9"/>
       <c r="C608" s="9"/>
       <c r="D608" s="9"/>
       <c r="E608" s="11"/>
     </row>
     <row r="609" spans="1:5">
-      <c r="A609" s="19"/>
+      <c r="A609" s="23"/>
       <c r="B609" s="9"/>
       <c r="C609" s="9"/>
       <c r="D609" s="9"/>
       <c r="E609" s="11"/>
     </row>
     <row r="610" spans="1:5">
-      <c r="A610" s="19"/>
+      <c r="A610" s="23"/>
       <c r="B610" s="9"/>
       <c r="C610" s="9"/>
       <c r="D610" s="9"/>
       <c r="E610" s="11"/>
     </row>
     <row r="611" spans="1:5">
-      <c r="A611" s="19"/>
+      <c r="A611" s="23"/>
       <c r="B611" s="9"/>
       <c r="C611" s="9"/>
       <c r="D611" s="9"/>
       <c r="E611" s="11"/>
     </row>
     <row r="612" spans="1:5">
-      <c r="A612" s="19"/>
+      <c r="A612" s="23"/>
       <c r="B612" s="9"/>
       <c r="C612" s="9"/>
       <c r="D612" s="9"/>
       <c r="E612" s="11"/>
     </row>
     <row r="613" spans="1:5">
-      <c r="A613" s="19"/>
+      <c r="A613" s="23"/>
       <c r="B613" s="9"/>
       <c r="C613" s="9"/>
       <c r="D613" s="9"/>
       <c r="E613" s="11"/>
     </row>
     <row r="614" spans="1:5">
-      <c r="A614" s="19"/>
+      <c r="A614" s="23"/>
       <c r="B614" s="9"/>
       <c r="C614" s="9"/>
       <c r="D614" s="9"/>
       <c r="E614" s="11"/>
     </row>
     <row r="615" spans="1:5">
-      <c r="A615" s="19"/>
+      <c r="A615" s="23"/>
       <c r="B615" s="9"/>
       <c r="C615" s="9"/>
       <c r="D615" s="9"/>
       <c r="E615" s="11"/>
     </row>
     <row r="616" spans="1:5">
-      <c r="A616" s="19"/>
+      <c r="A616" s="23"/>
       <c r="B616" s="9"/>
       <c r="C616" s="9"/>
       <c r="D616" s="9"/>
       <c r="E616" s="11"/>
     </row>
     <row r="617" spans="1:5">
-      <c r="A617" s="19"/>
+      <c r="A617" s="23"/>
       <c r="B617" s="9"/>
       <c r="C617" s="9"/>
       <c r="D617" s="9"/>
       <c r="E617" s="11"/>
     </row>
     <row r="618" spans="1:5">
-      <c r="A618" s="19"/>
+      <c r="A618" s="23"/>
       <c r="B618" s="9"/>
       <c r="C618" s="9"/>
       <c r="D618" s="9"/>
       <c r="E618" s="11"/>
     </row>
     <row r="619" spans="1:5">
-      <c r="A619" s="19"/>
+      <c r="A619" s="23"/>
       <c r="B619" s="9"/>
       <c r="C619" s="9"/>
       <c r="D619" s="9"/>
       <c r="E619" s="11"/>
     </row>
     <row r="620" spans="1:5">
-      <c r="A620" s="20"/>
+      <c r="A620" s="24"/>
       <c r="B620" s="9"/>
       <c r="C620" s="9"/>
       <c r="D620" s="9"/>
       <c r="E620" s="11"/>
     </row>
     <row r="621" spans="1:5">
-      <c r="A621" s="16"/>
+      <c r="A621" s="20"/>
       <c r="B621" s="9"/>
       <c r="C621" s="9"/>
       <c r="D621" s="9"/>
       <c r="E621" s="11"/>
     </row>
     <row r="622" spans="1:5">
-      <c r="A622" s="19"/>
+      <c r="A622" s="23"/>
       <c r="B622" s="9"/>
       <c r="C622" s="9"/>
       <c r="D622" s="9"/>
       <c r="E622" s="11"/>
     </row>
     <row r="623" spans="1:5">
-      <c r="A623" s="19"/>
+      <c r="A623" s="23"/>
       <c r="B623" s="9"/>
       <c r="C623" s="9"/>
       <c r="D623" s="9"/>
       <c r="E623" s="11"/>
     </row>
     <row r="624" spans="1:5">
-      <c r="A624" s="19"/>
+      <c r="A624" s="23"/>
       <c r="B624" s="9"/>
       <c r="C624" s="9"/>
       <c r="D624" s="9"/>
       <c r="E624" s="11"/>
     </row>
     <row r="625" spans="1:5">
-      <c r="A625" s="19"/>
+      <c r="A625" s="23"/>
       <c r="B625" s="9"/>
       <c r="C625" s="9"/>
       <c r="D625" s="9"/>
       <c r="E625" s="11"/>
     </row>
     <row r="626" spans="1:5">
-      <c r="A626" s="19"/>
+      <c r="A626" s="23"/>
       <c r="B626" s="9"/>
       <c r="C626" s="9"/>
       <c r="D626" s="9"/>
       <c r="E626" s="11"/>
     </row>
     <row r="627" spans="1:5">
-      <c r="A627" s="19"/>
+      <c r="A627" s="23"/>
       <c r="B627" s="9"/>
       <c r="C627" s="9"/>
       <c r="D627" s="9"/>
       <c r="E627" s="11"/>
     </row>
     <row r="628" spans="1:5">
-      <c r="A628" s="19"/>
+      <c r="A628" s="23"/>
       <c r="B628" s="9"/>
       <c r="C628" s="9"/>
       <c r="D628" s="9"/>
       <c r="E628" s="11"/>
     </row>
     <row r="629" spans="1:5">
-      <c r="A629" s="19"/>
+      <c r="A629" s="23"/>
       <c r="B629" s="9"/>
       <c r="C629" s="9"/>
       <c r="D629" s="9"/>
       <c r="E629" s="11"/>
     </row>
     <row r="630" spans="1:5">
-      <c r="A630" s="19"/>
+      <c r="A630" s="23"/>
       <c r="B630" s="9"/>
       <c r="C630" s="9"/>
       <c r="D630" s="9"/>
       <c r="E630" s="11"/>
     </row>
     <row r="631" spans="1:5">
-      <c r="A631" s="19"/>
+      <c r="A631" s="23"/>
       <c r="B631" s="9"/>
       <c r="C631" s="9"/>
       <c r="D631" s="9"/>
       <c r="E631" s="11"/>
     </row>
     <row r="632" spans="1:5">
-      <c r="A632" s="19"/>
+      <c r="A632" s="23"/>
       <c r="B632" s="9"/>
       <c r="C632" s="9"/>
       <c r="D632" s="9"/>
       <c r="E632" s="11"/>
     </row>
     <row r="633" spans="1:5">
-      <c r="A633" s="19"/>
+      <c r="A633" s="23"/>
       <c r="B633" s="9"/>
       <c r="C633" s="9"/>
       <c r="D633" s="9"/>
       <c r="E633" s="11"/>
     </row>
     <row r="634" spans="1:5">
-      <c r="A634" s="19"/>
+      <c r="A634" s="23"/>
       <c r="B634" s="9"/>
       <c r="C634" s="9"/>
       <c r="D634" s="9"/>
       <c r="E634" s="11"/>
     </row>
     <row r="635" spans="1:5">
-      <c r="A635" s="19"/>
+      <c r="A635" s="23"/>
       <c r="B635" s="9"/>
       <c r="C635" s="9"/>
       <c r="D635" s="9"/>
       <c r="E635" s="11"/>
     </row>
     <row r="636" spans="1:5">
-      <c r="A636" s="19"/>
+      <c r="A636" s="23"/>
       <c r="B636" s="9"/>
       <c r="C636" s="9"/>
       <c r="D636" s="9"/>
       <c r="E636" s="11"/>
     </row>
     <row r="637" spans="1:5">
-      <c r="A637" s="19"/>
+      <c r="A637" s="23"/>
       <c r="B637" s="9"/>
       <c r="C637" s="9"/>
       <c r="D637" s="9"/>
       <c r="E637" s="11"/>
     </row>
     <row r="638" spans="1:5">
-      <c r="A638" s="19"/>
+      <c r="A638" s="23"/>
       <c r="B638" s="9"/>
       <c r="C638" s="9"/>
       <c r="D638" s="9"/>
       <c r="E638" s="11"/>
     </row>
     <row r="639" spans="1:5">
-      <c r="A639" s="19"/>
+      <c r="A639" s="23"/>
       <c r="B639" s="9"/>
       <c r="C639" s="9"/>
       <c r="D639" s="9"/>
       <c r="E639" s="11"/>
     </row>
     <row r="640" spans="1:5">
-      <c r="A640" s="19"/>
+      <c r="A640" s="23"/>
       <c r="B640" s="9"/>
       <c r="C640" s="9"/>
       <c r="D640" s="9"/>
       <c r="E640" s="11"/>
     </row>
     <row r="641" spans="1:5">
-      <c r="A641" s="19"/>
+      <c r="A641" s="23"/>
       <c r="B641" s="9"/>
       <c r="C641" s="9"/>
       <c r="D641" s="9"/>
       <c r="E641" s="11"/>
     </row>
     <row r="642" spans="1:5">
-      <c r="A642" s="19"/>
+      <c r="A642" s="23"/>
       <c r="B642" s="9"/>
       <c r="C642" s="9"/>
       <c r="D642" s="9"/>
       <c r="E642" s="11"/>
     </row>
     <row r="643" spans="1:5">
-      <c r="A643" s="19"/>
+      <c r="A643" s="23"/>
       <c r="B643" s="9"/>
       <c r="C643" s="9"/>
       <c r="D643" s="9"/>
       <c r="E643" s="11"/>
     </row>
     <row r="644" spans="1:5">
-      <c r="A644" s="19"/>
+      <c r="A644" s="23"/>
       <c r="B644" s="9"/>
       <c r="C644" s="9"/>
       <c r="D644" s="9"/>
       <c r="E644" s="11"/>
     </row>
     <row r="645" spans="1:5">
-      <c r="A645" s="19"/>
+      <c r="A645" s="23"/>
       <c r="B645" s="9"/>
       <c r="C645" s="9"/>
       <c r="D645" s="9"/>
       <c r="E645" s="11"/>
     </row>
     <row r="646" spans="1:5">
-      <c r="A646" s="19"/>
+      <c r="A646" s="23"/>
       <c r="B646" s="9"/>
       <c r="C646" s="9"/>
       <c r="D646" s="9"/>
       <c r="E646" s="11"/>
     </row>
     <row r="647" spans="1:5">
-      <c r="A647" s="19"/>
+      <c r="A647" s="23"/>
       <c r="B647" s="9"/>
       <c r="C647" s="9"/>
       <c r="D647" s="9"/>
       <c r="E647" s="11"/>
     </row>
     <row r="648" spans="1:5">
-      <c r="A648" s="19"/>
+      <c r="A648" s="23"/>
       <c r="B648" s="9"/>
       <c r="C648" s="9"/>
       <c r="D648" s="9"/>
       <c r="E648" s="11"/>
     </row>
     <row r="649" spans="1:5">
-      <c r="A649" s="19"/>
+      <c r="A649" s="23"/>
       <c r="B649" s="9"/>
       <c r="C649" s="9"/>
       <c r="D649" s="9"/>
       <c r="E649" s="11"/>
     </row>
     <row r="650" spans="1:5">
-      <c r="A650" s="19"/>
+      <c r="A650" s="23"/>
       <c r="B650" s="9"/>
       <c r="C650" s="9"/>
       <c r="D650" s="9"/>
       <c r="E650" s="11"/>
     </row>
     <row r="651" spans="1:5">
-      <c r="A651" s="19"/>
+      <c r="A651" s="23"/>
       <c r="B651" s="9"/>
       <c r="C651" s="9"/>
       <c r="D651" s="9"/>
       <c r="E651" s="11"/>
     </row>
     <row r="652" spans="1:5">
-      <c r="A652" s="19"/>
+      <c r="A652" s="23"/>
       <c r="B652" s="9"/>
       <c r="C652" s="9"/>
       <c r="D652" s="9"/>
       <c r="E652" s="11"/>
     </row>
     <row r="653" spans="1:5">
-      <c r="A653" s="19"/>
+      <c r="A653" s="23"/>
       <c r="B653" s="9"/>
       <c r="C653" s="9"/>
       <c r="D653" s="9"/>
       <c r="E653" s="11"/>
     </row>
     <row r="654" spans="1:5">
-      <c r="A654" s="19"/>
+      <c r="A654" s="23"/>
       <c r="B654" s="9"/>
       <c r="C654" s="9"/>
       <c r="D654" s="9"/>
       <c r="E654" s="11"/>
     </row>
     <row r="655" spans="1:5">
-      <c r="A655" s="19"/>
+      <c r="A655" s="23"/>
       <c r="B655" s="9"/>
       <c r="C655" s="9"/>
       <c r="D655" s="9"/>
       <c r="E655" s="11"/>
     </row>
     <row r="656" spans="1:5">
-      <c r="A656" s="19"/>
+      <c r="A656" s="23"/>
       <c r="B656" s="9"/>
       <c r="C656" s="9"/>
       <c r="D656" s="9"/>
       <c r="E656" s="11"/>
     </row>
     <row r="657" spans="1:5">
-      <c r="A657" s="19"/>
+      <c r="A657" s="23"/>
       <c r="B657" s="9"/>
       <c r="C657" s="9"/>
       <c r="D657" s="9"/>
       <c r="E657" s="11"/>
     </row>
     <row r="658" spans="1:5">
-      <c r="A658" s="19"/>
+      <c r="A658" s="23"/>
       <c r="B658" s="9"/>
       <c r="C658" s="9"/>
       <c r="D658" s="9"/>
       <c r="E658" s="11"/>
     </row>
     <row r="659" spans="1:5">
-      <c r="A659" s="19"/>
+      <c r="A659" s="23"/>
       <c r="B659" s="9"/>
       <c r="C659" s="9"/>
       <c r="D659" s="9"/>
       <c r="E659" s="11"/>
     </row>
     <row r="660" spans="1:5">
-      <c r="A660" s="19"/>
+      <c r="A660" s="23"/>
       <c r="B660" s="9"/>
       <c r="C660" s="9"/>
       <c r="D660" s="9"/>
       <c r="E660" s="11"/>
     </row>
     <row r="661" spans="1:5">
-      <c r="A661" s="19"/>
+      <c r="A661" s="23"/>
       <c r="B661" s="9"/>
       <c r="C661" s="9"/>
       <c r="D661" s="9"/>
       <c r="E661" s="11"/>
     </row>
     <row r="662" spans="1:5">
-      <c r="A662" s="19"/>
+      <c r="A662" s="23"/>
       <c r="B662" s="9"/>
       <c r="C662" s="9"/>
       <c r="D662" s="9"/>
       <c r="E662" s="11"/>
     </row>
     <row r="663" spans="1:5">
-      <c r="A663" s="19"/>
+      <c r="A663" s="23"/>
       <c r="B663" s="9"/>
       <c r="C663" s="9"/>
       <c r="D663" s="9"/>
       <c r="E663" s="11"/>
     </row>
     <row r="664" spans="1:5">
-      <c r="A664" s="19"/>
+      <c r="A664" s="23"/>
       <c r="B664" s="9"/>
       <c r="C664" s="9"/>
       <c r="D664" s="9"/>
       <c r="E664" s="11"/>
     </row>
     <row r="665" spans="1:5">
-      <c r="A665" s="19"/>
+      <c r="A665" s="23"/>
       <c r="B665" s="9"/>
       <c r="C665" s="9"/>
       <c r="D665" s="9"/>
       <c r="E665" s="11"/>
     </row>
     <row r="666" spans="1:5">
-      <c r="A666" s="19"/>
+      <c r="A666" s="23"/>
       <c r="B666" s="9"/>
       <c r="C666" s="9"/>
       <c r="D666" s="9"/>
       <c r="E666" s="11"/>
     </row>
     <row r="667" spans="1:5">
-      <c r="A667" s="19"/>
+      <c r="A667" s="23"/>
       <c r="B667" s="9"/>
       <c r="C667" s="9"/>
       <c r="D667" s="9"/>
       <c r="E667" s="11"/>
     </row>
     <row r="668" spans="1:5">
-      <c r="A668" s="19"/>
+      <c r="A668" s="23"/>
       <c r="B668" s="9"/>
       <c r="C668" s="9"/>
       <c r="D668" s="9"/>
       <c r="E668" s="11"/>
     </row>
     <row r="669" spans="1:5">
-      <c r="A669" s="19"/>
+      <c r="A669" s="23"/>
       <c r="B669" s="9"/>
       <c r="C669" s="9"/>
       <c r="D669" s="9"/>
       <c r="E669" s="11"/>
     </row>
     <row r="670" spans="1:5">
-      <c r="A670" s="19"/>
+      <c r="A670" s="23"/>
       <c r="B670" s="9"/>
       <c r="C670" s="9"/>
       <c r="D670" s="9"/>
       <c r="E670" s="11"/>
     </row>
     <row r="671" spans="1:5">
-      <c r="A671" s="19"/>
+      <c r="A671" s="23"/>
       <c r="B671" s="9"/>
       <c r="C671" s="9"/>
       <c r="D671" s="9"/>
       <c r="E671" s="11"/>
     </row>
     <row r="672" spans="1:5">
-      <c r="A672" s="19"/>
+      <c r="A672" s="23"/>
       <c r="B672" s="9"/>
       <c r="C672" s="9"/>
       <c r="D672" s="9"/>
       <c r="E672" s="11"/>
     </row>
     <row r="673" spans="1:5">
-      <c r="A673" s="19"/>
+      <c r="A673" s="23"/>
       <c r="B673" s="9"/>
       <c r="C673" s="9"/>
       <c r="D673" s="9"/>
       <c r="E673" s="11"/>
     </row>
     <row r="674" spans="1:5">
-      <c r="A674" s="19"/>
+      <c r="A674" s="23"/>
       <c r="B674" s="9"/>
       <c r="C674" s="9"/>
       <c r="D674" s="9"/>
       <c r="E674" s="11"/>
     </row>
     <row r="675" spans="1:5">
-      <c r="A675" s="19"/>
+      <c r="A675" s="23"/>
       <c r="B675" s="9"/>
       <c r="C675" s="9"/>
       <c r="D675" s="9"/>
       <c r="E675" s="11"/>
     </row>
     <row r="676" spans="1:5">
-      <c r="A676" s="19"/>
+      <c r="A676" s="23"/>
       <c r="B676" s="9"/>
       <c r="C676" s="9"/>
       <c r="D676" s="9"/>
       <c r="E676" s="11"/>
     </row>
     <row r="677" spans="1:5">
-      <c r="A677" s="19"/>
+      <c r="A677" s="23"/>
       <c r="B677" s="9"/>
       <c r="C677" s="9"/>
       <c r="D677" s="9"/>
       <c r="E677" s="11"/>
     </row>
     <row r="678" spans="1:5">
-      <c r="A678" s="19"/>
+      <c r="A678" s="23"/>
       <c r="B678" s="9"/>
       <c r="C678" s="9"/>
       <c r="D678" s="9"/>
       <c r="E678" s="11"/>
     </row>
     <row r="679" spans="1:5">
-      <c r="A679" s="19"/>
+      <c r="A679" s="23"/>
       <c r="B679" s="9"/>
       <c r="C679" s="9"/>
       <c r="D679" s="9"/>
       <c r="E679" s="11"/>
     </row>
     <row r="680" spans="1:5">
-      <c r="A680" s="19"/>
+      <c r="A680" s="23"/>
       <c r="B680" s="9"/>
       <c r="C680" s="9"/>
       <c r="D680" s="9"/>
       <c r="E680" s="11"/>
     </row>
     <row r="681" spans="1:5">
-      <c r="A681" s="19"/>
+      <c r="A681" s="23"/>
       <c r="B681" s="9"/>
       <c r="C681" s="9"/>
       <c r="D681" s="9"/>
       <c r="E681" s="11"/>
     </row>
     <row r="682" spans="1:5">
-      <c r="A682" s="19"/>
+      <c r="A682" s="23"/>
       <c r="B682" s="9"/>
       <c r="C682" s="9"/>
       <c r="D682" s="9"/>
       <c r="E682" s="11"/>
     </row>
     <row r="683" spans="1:5">
-      <c r="A683" s="19"/>
+      <c r="A683" s="23"/>
       <c r="B683" s="9"/>
       <c r="C683" s="9"/>
       <c r="D683" s="9"/>
       <c r="E683" s="11"/>
     </row>
     <row r="684" spans="1:5">
-      <c r="A684" s="20"/>
+      <c r="A684" s="24"/>
       <c r="B684" s="9"/>
       <c r="C684" s="9"/>
       <c r="D684" s="9"/>
       <c r="E684" s="11"/>
     </row>
     <row r="685" spans="1:5">
-      <c r="A685" s="16"/>
+      <c r="A685" s="20"/>
       <c r="B685" s="9"/>
       <c r="C685" s="9"/>
       <c r="D685" s="9"/>
       <c r="E685" s="11"/>
     </row>
     <row r="686" spans="1:5" ht="14.25" thickBot="1">
-      <c r="A686" s="17"/>
+      <c r="A686" s="21"/>
       <c r="B686" s="12"/>
       <c r="C686" s="12"/>
       <c r="D686" s="12"/>
@@ -6380,42 +6609,46 @@
   <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="K36" sqref="K36"/>
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.375" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="7" width="20.375" style="1"/>
+    <col min="1" max="1" width="20.375" style="1"/>
+    <col min="2" max="2" width="33.375" style="1" customWidth="1"/>
+    <col min="3" max="4" width="20.375" style="1"/>
+    <col min="5" max="5" width="30.5" style="1" customWidth="1"/>
+    <col min="6" max="7" width="20.375" style="1"/>
     <col min="8" max="8" width="20.375" style="2"/>
     <col min="9" max="16384" width="20.375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="49.5" customHeight="1">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
     </row>
     <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1"/>
     <row r="3" spans="1:8" ht="13.5" thickBot="1">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="28" t="s">
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="29"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="28"/>
     </row>
     <row r="4" spans="1:8" ht="13.5" thickBot="1">
       <c r="A4" s="3" t="s">
@@ -6458,10 +6691,10 @@
       <c r="F5" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="30" t="s">
+      <c r="G5" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="32" t="s">
+      <c r="H5" s="29" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6480,8 +6713,8 @@
       <c r="F6" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="31"/>
-      <c r="H6" s="33"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
     </row>
     <row r="7" spans="1:8" ht="14.25" customHeight="1" thickBot="1">
       <c r="A7" s="4"/>
@@ -6498,43 +6731,61 @@
       <c r="F7" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="31"/>
-      <c r="H7" s="33"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="30"/>
     </row>
     <row r="8" spans="1:8" ht="13.5" customHeight="1" thickBot="1">
       <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
+      <c r="B8" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>79</v>
+      </c>
       <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="33"/>
+      <c r="E8" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="G8" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="H8" s="30"/>
     </row>
     <row r="9" spans="1:8" ht="13.5" customHeight="1" thickBot="1">
       <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
+      <c r="B9" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>80</v>
+      </c>
       <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="33"/>
+      <c r="E9" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1"/>
     <row r="11" spans="1:8" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="21" t="s">
+      <c r="B11" s="37"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="22"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="23"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="38"/>
     </row>
     <row r="12" spans="1:8" ht="13.5" thickBot="1">
       <c r="A12" s="3" t="s">
@@ -6577,10 +6828,10 @@
       <c r="F13" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G13" s="24" t="s">
+      <c r="G13" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="24" t="s">
+      <c r="H13" s="39" t="s">
         <v>17</v>
       </c>
     </row>
@@ -6599,8 +6850,8 @@
       <c r="F14" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
     </row>
     <row r="15" spans="1:8" ht="14.25" customHeight="1" thickBot="1">
       <c r="A15" s="4"/>
@@ -6617,501 +6868,500 @@
       <c r="F15" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
     </row>
     <row r="16" spans="1:8" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A16" s="40" t="s">
+      <c r="A16" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="37" t="s">
+      <c r="C16" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="41" t="s">
+      <c r="D16" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E16" s="39" t="s">
+      <c r="E16" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="F16" s="39" t="s">
+      <c r="F16" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="G16" s="36" t="s">
+      <c r="G16" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="H16" s="44" t="s">
+      <c r="H16" s="31" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A17" s="42" t="s">
+      <c r="A17" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="34"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="43" t="s">
+      <c r="B17" s="44"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
       <c r="G17" s="35"/>
-      <c r="H17" s="45"/>
+      <c r="H17" s="32"/>
     </row>
     <row r="18" spans="1:8" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A18" s="42" t="s">
+      <c r="A18" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="34"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="43" t="s">
+      <c r="B18" s="44"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
       <c r="G18" s="35"/>
-      <c r="H18" s="45"/>
+      <c r="H18" s="32"/>
     </row>
     <row r="19" spans="1:8" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A19" s="42" t="s">
+      <c r="A19" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="34"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="43" t="s">
+      <c r="B19" s="44"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
       <c r="G19" s="35"/>
-      <c r="H19" s="45"/>
+      <c r="H19" s="32"/>
     </row>
     <row r="20" spans="1:8" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A20" s="42" t="s">
+      <c r="A20" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="B20" s="34"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="43" t="s">
+      <c r="B20" s="44"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
       <c r="G20" s="35"/>
-      <c r="H20" s="45"/>
+      <c r="H20" s="32"/>
     </row>
     <row r="21" spans="1:8" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A21" s="42" t="s">
+      <c r="A21" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="34"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="43" t="s">
+      <c r="B21" s="44"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
       <c r="G21" s="35"/>
-      <c r="H21" s="45"/>
+      <c r="H21" s="32"/>
     </row>
     <row r="22" spans="1:8" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A22" s="42" t="s">
+      <c r="A22" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="B22" s="34"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="43" t="s">
+      <c r="B22" s="44"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
       <c r="G22" s="35"/>
-      <c r="H22" s="45"/>
+      <c r="H22" s="32"/>
     </row>
     <row r="23" spans="1:8" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A23" s="42" t="s">
+      <c r="A23" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="B23" s="34"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="43" t="s">
+      <c r="B23" s="44"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="E23" s="39" t="s">
+      <c r="E23" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="F23" s="39" t="s">
+      <c r="F23" s="41" t="s">
         <v>41</v>
       </c>
       <c r="G23" s="35"/>
-      <c r="H23" s="45"/>
+      <c r="H23" s="32"/>
     </row>
     <row r="24" spans="1:8" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A24" s="42" t="s">
+      <c r="A24" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="B24" s="34"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="43" t="s">
+      <c r="B24" s="44"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
       <c r="G24" s="35"/>
-      <c r="H24" s="45"/>
+      <c r="H24" s="32"/>
     </row>
     <row r="25" spans="1:8" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A25" s="42" t="s">
+      <c r="A25" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="B25" s="34"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="43" t="s">
+      <c r="B25" s="44"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
       <c r="G25" s="35"/>
-      <c r="H25" s="45"/>
+      <c r="H25" s="32"/>
     </row>
     <row r="26" spans="1:8" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A26" s="42" t="s">
+      <c r="A26" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="B26" s="34"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="43" t="s">
+      <c r="B26" s="44"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="E26" s="38"/>
-      <c r="F26" s="38"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
       <c r="G26" s="35"/>
-      <c r="H26" s="45"/>
+      <c r="H26" s="32"/>
     </row>
     <row r="27" spans="1:8" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A27" s="42" t="s">
+      <c r="A27" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="B27" s="34"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="43" t="s">
+      <c r="B27" s="44"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
       <c r="G27" s="35"/>
-      <c r="H27" s="45"/>
+      <c r="H27" s="32"/>
     </row>
     <row r="28" spans="1:8" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A28" s="42" t="s">
+      <c r="A28" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="B28" s="34"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="43" t="s">
+      <c r="B28" s="44"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="E28" s="38"/>
-      <c r="F28" s="38"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="42"/>
       <c r="G28" s="35"/>
-      <c r="H28" s="45"/>
+      <c r="H28" s="32"/>
     </row>
     <row r="29" spans="1:8" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A29" s="42" t="s">
+      <c r="A29" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="34"/>
-      <c r="C29" s="34"/>
-      <c r="D29" s="43" t="s">
+      <c r="B29" s="44"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="E29" s="38"/>
-      <c r="F29" s="38"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
       <c r="G29" s="35"/>
-      <c r="H29" s="45"/>
+      <c r="H29" s="32"/>
     </row>
     <row r="30" spans="1:8" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A30" s="42" t="s">
+      <c r="A30" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="B30" s="34"/>
-      <c r="C30" s="34"/>
-      <c r="D30" s="43" t="s">
+      <c r="B30" s="44"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="E30" s="38"/>
-      <c r="F30" s="38"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
       <c r="G30" s="35"/>
-      <c r="H30" s="45"/>
+      <c r="H30" s="32"/>
     </row>
     <row r="31" spans="1:8" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A31" s="42" t="s">
+      <c r="A31" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="B31" s="34"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="43" t="s">
+      <c r="B31" s="44"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="E31" s="39" t="s">
+      <c r="E31" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="F31" s="39" t="s">
+      <c r="F31" s="41" t="s">
         <v>42</v>
       </c>
       <c r="G31" s="35"/>
-      <c r="H31" s="45"/>
+      <c r="H31" s="32"/>
     </row>
     <row r="32" spans="1:8" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A32" s="42" t="s">
+      <c r="A32" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="B32" s="34"/>
-      <c r="C32" s="34"/>
-      <c r="D32" s="43" t="s">
+      <c r="B32" s="44"/>
+      <c r="C32" s="44"/>
+      <c r="D32" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="E32" s="38"/>
-      <c r="F32" s="38"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="42"/>
       <c r="G32" s="35"/>
-      <c r="H32" s="45"/>
+      <c r="H32" s="32"/>
     </row>
     <row r="33" spans="1:8" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A33" s="42" t="s">
+      <c r="A33" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="B33" s="34"/>
-      <c r="C33" s="34"/>
-      <c r="D33" s="43" t="s">
+      <c r="B33" s="44"/>
+      <c r="C33" s="44"/>
+      <c r="D33" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="E33" s="38"/>
-      <c r="F33" s="38"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="42"/>
       <c r="G33" s="35"/>
-      <c r="H33" s="45"/>
+      <c r="H33" s="32"/>
     </row>
     <row r="34" spans="1:8" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A34" s="42" t="s">
+      <c r="A34" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="43" t="s">
+      <c r="B34" s="44"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="E34" s="38"/>
-      <c r="F34" s="38"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="42"/>
       <c r="G34" s="35"/>
-      <c r="H34" s="45"/>
+      <c r="H34" s="32"/>
     </row>
     <row r="35" spans="1:8" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A35" s="42" t="s">
+      <c r="A35" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="B35" s="34"/>
-      <c r="C35" s="34"/>
-      <c r="D35" s="43" t="s">
+      <c r="B35" s="44"/>
+      <c r="C35" s="44"/>
+      <c r="D35" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="E35" s="38"/>
-      <c r="F35" s="38"/>
+      <c r="E35" s="42"/>
+      <c r="F35" s="42"/>
       <c r="G35" s="35"/>
-      <c r="H35" s="45"/>
+      <c r="H35" s="32"/>
     </row>
     <row r="36" spans="1:8" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A36" s="42" t="s">
+      <c r="A36" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="B36" s="34"/>
-      <c r="C36" s="34"/>
-      <c r="D36" s="43" t="s">
+      <c r="B36" s="44"/>
+      <c r="C36" s="44"/>
+      <c r="D36" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="E36" s="38"/>
-      <c r="F36" s="38"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="42"/>
       <c r="G36" s="35"/>
-      <c r="H36" s="45"/>
+      <c r="H36" s="32"/>
     </row>
     <row r="37" spans="1:8" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A37" s="42" t="s">
+      <c r="A37" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="B37" s="34"/>
-      <c r="C37" s="34"/>
-      <c r="D37" s="43" t="s">
+      <c r="B37" s="44"/>
+      <c r="C37" s="44"/>
+      <c r="D37" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="E37" s="38"/>
-      <c r="F37" s="38"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="42"/>
       <c r="G37" s="35"/>
-      <c r="H37" s="45"/>
+      <c r="H37" s="32"/>
     </row>
     <row r="38" spans="1:8" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A38" s="42" t="s">
+      <c r="A38" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="B38" s="34"/>
-      <c r="C38" s="34"/>
-      <c r="D38" s="43" t="s">
+      <c r="B38" s="44"/>
+      <c r="C38" s="44"/>
+      <c r="D38" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="E38" s="38"/>
-      <c r="F38" s="38"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="42"/>
       <c r="G38" s="35"/>
-      <c r="H38" s="45"/>
+      <c r="H38" s="32"/>
     </row>
     <row r="39" spans="1:8" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A39" s="42" t="s">
+      <c r="A39" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="B39" s="34"/>
-      <c r="C39" s="34"/>
-      <c r="D39" s="43" t="s">
+      <c r="B39" s="44"/>
+      <c r="C39" s="44"/>
+      <c r="D39" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="E39" s="38"/>
-      <c r="F39" s="38"/>
+      <c r="E39" s="42"/>
+      <c r="F39" s="42"/>
       <c r="G39" s="35"/>
-      <c r="H39" s="45"/>
+      <c r="H39" s="32"/>
     </row>
     <row r="40" spans="1:8" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A40" s="42" t="s">
+      <c r="A40" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="B40" s="34"/>
-      <c r="C40" s="34"/>
-      <c r="D40" s="43" t="s">
+      <c r="B40" s="44"/>
+      <c r="C40" s="44"/>
+      <c r="D40" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="E40" s="38"/>
-      <c r="F40" s="38"/>
+      <c r="E40" s="42"/>
+      <c r="F40" s="42"/>
       <c r="G40" s="35"/>
-      <c r="H40" s="45"/>
+      <c r="H40" s="32"/>
     </row>
     <row r="41" spans="1:8" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A41" s="42" t="s">
+      <c r="A41" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="B41" s="34"/>
-      <c r="C41" s="34"/>
-      <c r="D41" s="43" t="s">
+      <c r="B41" s="44"/>
+      <c r="C41" s="44"/>
+      <c r="D41" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="E41" s="38"/>
-      <c r="F41" s="38"/>
+      <c r="E41" s="42"/>
+      <c r="F41" s="42"/>
       <c r="G41" s="35"/>
-      <c r="H41" s="45"/>
+      <c r="H41" s="32"/>
     </row>
     <row r="42" spans="1:8" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A42" s="42" t="s">
+      <c r="A42" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="B42" s="34"/>
-      <c r="C42" s="34"/>
-      <c r="D42" s="43" t="s">
+      <c r="B42" s="44"/>
+      <c r="C42" s="44"/>
+      <c r="D42" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="E42" s="38"/>
-      <c r="F42" s="38"/>
+      <c r="E42" s="42"/>
+      <c r="F42" s="42"/>
       <c r="G42" s="35"/>
-      <c r="H42" s="45"/>
+      <c r="H42" s="32"/>
     </row>
     <row r="43" spans="1:8" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A43" s="42" t="s">
+      <c r="A43" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="B43" s="37" t="s">
+      <c r="B43" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="C43" s="37" t="s">
+      <c r="C43" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="D43" s="43" t="s">
+      <c r="D43" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="E43" s="39" t="s">
+      <c r="E43" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="F43" s="39" t="s">
+      <c r="F43" s="41" t="s">
         <v>71</v>
       </c>
       <c r="G43" s="35"/>
-      <c r="H43" s="45"/>
+      <c r="H43" s="32"/>
     </row>
     <row r="44" spans="1:8" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A44" s="42" t="s">
+      <c r="A44" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="B44" s="34"/>
-      <c r="C44" s="34"/>
-      <c r="D44" s="43" t="s">
+      <c r="B44" s="44"/>
+      <c r="C44" s="44"/>
+      <c r="D44" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="E44" s="38"/>
-      <c r="F44" s="38"/>
+      <c r="E44" s="42"/>
+      <c r="F44" s="42"/>
       <c r="G44" s="35"/>
-      <c r="H44" s="45"/>
+      <c r="H44" s="32"/>
     </row>
     <row r="45" spans="1:8" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A45" s="42" t="s">
+      <c r="A45" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="B45" s="34"/>
-      <c r="C45" s="34"/>
-      <c r="D45" s="43" t="s">
+      <c r="B45" s="44"/>
+      <c r="C45" s="44"/>
+      <c r="D45" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="E45" s="38"/>
-      <c r="F45" s="38"/>
+      <c r="E45" s="42"/>
+      <c r="F45" s="42"/>
       <c r="G45" s="35"/>
-      <c r="H45" s="45"/>
+      <c r="H45" s="32"/>
     </row>
     <row r="46" spans="1:8" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A46" s="42" t="s">
+      <c r="A46" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="B46" s="40" t="s">
+      <c r="B46" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="C46" s="40" t="s">
+      <c r="C46" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="D46" s="43" t="s">
+      <c r="D46" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="E46" s="38"/>
-      <c r="F46" s="38"/>
+      <c r="E46" s="42"/>
+      <c r="F46" s="42"/>
       <c r="G46" s="35"/>
-      <c r="H46" s="45"/>
+      <c r="H46" s="32"/>
     </row>
     <row r="47" spans="1:8" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A47" s="42" t="s">
+      <c r="A47" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="B47" s="40" t="s">
+      <c r="B47" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="C47" s="40" t="s">
+      <c r="C47" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="D47" s="43" t="s">
+      <c r="D47" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="E47" s="38"/>
-      <c r="F47" s="38"/>
+      <c r="E47" s="42"/>
+      <c r="F47" s="42"/>
       <c r="G47" s="35"/>
-      <c r="H47" s="46"/>
+      <c r="H47" s="33"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G5:G9"/>
-    <mergeCell ref="H5:H9"/>
+  <mergeCells count="26">
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="B16:B42"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="G5:G7"/>
     <mergeCell ref="H16:H47"/>
     <mergeCell ref="G16:G47"/>
     <mergeCell ref="A11:C11"/>
@@ -7128,9 +7378,11 @@
     <mergeCell ref="E31:E42"/>
     <mergeCell ref="E43:E47"/>
     <mergeCell ref="C16:C42"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="B16:B42"/>
-    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="H5:H9"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
